--- a/Randomizing/random_variables.xlsx
+++ b/Randomizing/random_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\Excel_fun\Randomizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ACDDA7-6FC6-44AD-B7A8-7A93D4A9B2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF989EC-4B1B-474A-9E1F-A41BF76FA6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random_Variables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Normal Distribution</t>
   </si>
@@ -187,6 +187,117 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>decimal places</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>random #1</t>
+  </si>
+  <si>
+    <t>random #2</t>
+  </si>
+  <si>
+    <t>random #3</t>
+  </si>
+  <si>
+    <t>random #4</t>
+  </si>
+  <si>
+    <t>random #5</t>
+  </si>
+  <si>
+    <t>Uniform with decimal places</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>From a List (uniform)</t>
   </si>
 </sst>
 </file>
@@ -255,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -511,11 +622,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -534,15 +700,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -560,6 +717,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +942,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -872,6 +1066,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -972,6 +1167,7 @@
               <a:endParaRPr lang="en-CA" sz="1100"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1206,7 +1402,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1647,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1660,20 +1856,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="36"/>
+      <c r="E2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="I2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="10" t="s">
@@ -1708,7 +1904,7 @@
       <c r="C4" s="17">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="16">
@@ -1717,13 +1913,13 @@
       <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>250</v>
       </c>
       <c r="J4" s="16">
         <v>0.5</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1733,9 +1929,9 @@
       </c>
       <c r="C5" s="14">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C4)</f>
-        <v>79.483586243106558</v>
-      </c>
-      <c r="E5" s="21" t="s">
+        <v>92.752680215787493</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="16">
@@ -1745,19 +1941,19 @@
         <f>G4+F4</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>600</v>
       </c>
       <c r="J5" s="16">
         <v>0.3</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="21">
         <f>K4+J4</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="16">
@@ -1767,13 +1963,13 @@
         <f>G5+F5</f>
         <v>0.8</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>720</v>
       </c>
       <c r="J6" s="16">
         <v>0.15</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <f>K5+J5</f>
         <v>0.8</v>
       </c>
@@ -1783,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="16">
@@ -1793,13 +1989,13 @@
         <f>G6+F6</f>
         <v>0.95000000000000007</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>900</v>
       </c>
       <c r="J7" s="16">
         <v>0.05</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="21">
         <f>K6+J6</f>
         <v>0.95000000000000007</v>
       </c>
@@ -1819,9 +2015,9 @@
         <v>1</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <f t="shared" ref="K8:K12" si="0">K7+J7</f>
         <v>1</v>
       </c>
@@ -1832,14 +2028,14 @@
       </c>
       <c r="C9" s="14">
         <f ca="1">-(1/C8)*LN(RAND())</f>
-        <v>6.1153695405927029E-2</v>
+        <v>7.8270580428873877E-3</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24">
+      <c r="K9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1853,21 +2049,21 @@
         <v>Sunny</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="24">
+      <c r="K10" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="I11" s="22"/>
+      <c r="C11" s="36"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24">
+      <c r="K11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1879,12 +2075,12 @@
       <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23">
+      <c r="I12" s="19"/>
+      <c r="J12" s="20">
         <f>1-SUM(J4:J11)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1899,7 +2095,7 @@
       <c r="I13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f>SUM(J4:J7)</f>
         <v>1</v>
       </c>
@@ -1911,18 +2107,18 @@
       </c>
       <c r="C14" s="14">
         <f ca="1">C12+(C13-C12)*RAND()</f>
-        <v>13.65091518003295</v>
-      </c>
-      <c r="E14" s="18" t="s">
+        <v>18.845649765607781</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="36"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -1933,16 +2129,16 @@
       </c>
       <c r="J15" s="12">
         <f ca="1">LOOKUP(RAND(),K4:K7,I4:I7)</f>
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="36"/>
+      <c r="E16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -1956,7 +2152,7 @@
       <c r="C17" s="17">
         <v>10</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="17">
@@ -1970,12 +2166,12 @@
       <c r="C18" s="17">
         <v>20</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="14" t="str">
         <f ca="1">IF(RAND()&lt;F17,F15,F16)</f>
-        <v>Sad</v>
+        <v>Happy</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1984,15 +2180,15 @@
       </c>
       <c r="C19" s="14">
         <f ca="1">RANDBETWEEN(C17,C18)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="s">
@@ -2016,7 +2212,7 @@
       </c>
       <c r="C24" s="14">
         <f ca="1">_xlfn.BINOM.INV(C22,C23,RAND())</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2052,17 +2248,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="25"/>
       <c r="I2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="J3" t="s">
         <v>38</v>
       </c>
@@ -2077,16 +2273,16 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <v>1000000</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="36"/>
       <c r="J4">
         <v>0</v>
       </c>
@@ -2104,16 +2300,16 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <f>C4</f>
         <v>1000000</v>
       </c>
@@ -2134,17 +2330,17 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <f>C5/C4</f>
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="34">
         <f>C5</f>
         <v>6</v>
       </c>
@@ -2165,14 +2361,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="14">
         <f ca="1">_xlfn.BINOM.INV(G5,G6/G5,RAND())</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -2191,10 +2387,10 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="27"/>
       <c r="J8">
         <v>4</v>
       </c>
@@ -2212,10 +2408,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="30" t="str">
         <f>IF(C4&gt;100,"Yes!", "pick a bigger n")</f>
         <v>Yes!</v>
       </c>
@@ -2236,10 +2432,10 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="30" t="str">
         <f>IF(C5&lt;0.01,"Yes!", "pick a bigger n")</f>
         <v>pick a bigger n</v>
       </c>
@@ -2260,10 +2456,10 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="35" t="e">
+      <c r="C11" s="32" t="e">
         <f>SUM(m)</f>
         <v>#NAME?</v>
       </c>
@@ -2600,12 +2796,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D606C6-D4C0-4F9E-8C67-066EAE047F3B}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="H2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38">
+        <f ca="1">RANDBETWEEN(C4*10^E4,D4*10^E4)/(10^E4)</f>
+        <v>1.129</v>
+      </c>
+      <c r="H4" s="52">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <f t="shared" ref="F5:F8" ca="1" si="0">RANDBETWEEN(C5*10^E5,D5*10^E5)/(10^E5)</f>
+        <v>1674</v>
+      </c>
+      <c r="H5" s="52">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="16">
+        <v>277</v>
+      </c>
+      <c r="D6" s="16">
+        <v>456</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>380.96499999999997</v>
+      </c>
+      <c r="H6" s="52">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="H7" s="52">
+        <v>4</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+      <c r="E8" s="39">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="H8" s="52">
+        <v>5</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H9" s="52">
+        <v>6</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H10" s="52">
+        <v>7</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H11" s="52">
+        <v>8</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H12" s="52">
+        <v>9</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H13" s="52">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H14" s="52">
+        <v>11</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H15" s="52">
+        <v>12</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H16" s="52">
+        <v>13</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H17" s="52">
+        <v>14</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H18" s="52">
+        <v>15</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H19" s="52">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H20" s="52">
+        <v>17</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H21" s="52">
+        <v>18</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H22" s="52">
+        <v>19</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H23" s="52">
+        <v>20</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H24" s="52">
+        <v>21</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H25" s="52">
+        <v>22</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H26" s="52">
+        <v>23</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H27" s="52">
+        <v>24</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H28" s="54">
+        <v>25</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H29" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="49" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,MAX(H:H)),H4:I28,2, FALSE)</f>
+        <v>Noah</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Randomizing/random_variables.xlsx
+++ b/Randomizing/random_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\Excel_fun\Randomizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2984B5-218F-4FEC-B539-6E0ED1CBDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A0CC38-4C10-4422-919D-C59F442C8915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random_Variables" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Extra" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Truncated_Normal!$C$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Truncated_Normal!$C$17:$C$516</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Truncated_Normal!$B$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Truncated_Normal!$B$17:$B$516</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Truncated_Normal!$B$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Truncated_Normal!$B$17:$B$516</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Truncated_Normal!$C$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Truncated_Normal!$C$17:$C$516</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -2377,7 +2377,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2415,7 +2415,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5811D62E-A69F-4A4E-A959-2A94CBD5F4EB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Sampling</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2444,7 +2444,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2482,7 +2482,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{C3684F8B-19C0-4130-A75D-937B94A5A769}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Min/Max</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4580,8 +4580,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>143445</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -4600,7 +4600,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -4645,8 +4645,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9330</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -4665,7 +4665,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -4710,8 +4710,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>142710</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -4730,7 +4730,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -4775,8 +4775,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -4795,7 +4795,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="C5" s="14">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C4)</f>
-        <v>104.08403501771618</v>
+        <v>105.41300309947958</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>22</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C9" s="14">
         <f ca="1">-(1/C8)*LN(RAND())</f>
-        <v>3.4861715886183683E-2</v>
+        <v>4.9983575751513638E-2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f ca="1">LOOKUP(RAND(),G4:G7,E4:E7)</f>
-        <v>Sunny</v>
+        <v>Cloudy</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="19"/>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C14" s="14">
         <f ca="1">C12+(C13-C12)*RAND()</f>
-        <v>17.668825421210862</v>
+        <v>18.930633928240518</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>13</v>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="J15" s="12">
         <f ca="1">LOOKUP(RAND(),K4:K7,I4:I7)</f>
-        <v>250</v>
+        <v>720</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C19" s="14">
         <f ca="1">RANDBETWEEN(C17,C18)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C24" s="14">
         <f ca="1">_xlfn.BINOM.INV(C22,C23,RAND())</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="F9" s="50">
         <f ca="1">MAX(F7,_xlfn.NORM.INV(RAND(),F5,F6))</f>
-        <v>11.860139847453031</v>
+        <v>9.1501165622962226</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="F10" s="50">
         <f ca="1">MIN(F8,_xlfn.NORM.INV(RAND(),F5,F6))</f>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5721,14 +5721,14 @@
       </c>
       <c r="C11" s="14">
         <f ca="1">_xlfn.NORM.INV((C9+(C10-C9)*RAND()),C5,C6)</f>
-        <v>8.3222957386229961</v>
+        <v>6.4556470086367579</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="14">
         <f ca="1">MIN(F10,MAX(F7,_xlfn.NORM.INV(RAND(),F5,F6)))</f>
-        <v>5.7302891019851376</v>
+        <v>3.3430019028365745</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -5749,11 +5749,11 @@
       </c>
       <c r="B17">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>8.3880422725772306</v>
+        <v>8.0211069952055976</v>
       </c>
       <c r="C17">
         <f ca="1">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>2.7871928410108229</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -5762,11 +5762,11 @@
       </c>
       <c r="B18">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>9.2471045556303455</v>
+        <v>5.5725135088564794</v>
       </c>
       <c r="C18">
         <f ca="1">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -5775,11 +5775,11 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B82" ca="1" si="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>6.7339999354554712</v>
+        <v>5.2151554985824102</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C82" ca="1" si="2">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>7.5972586803029296</v>
+        <v>7.5116009106855124</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -5788,11 +5788,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2884445985828759</v>
+        <v>7.6241049128794085</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -5801,11 +5801,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5045025515941823</v>
+        <v>9.2400215095240448</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>5.323883812788635</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -5814,11 +5814,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3242880452373935</v>
+        <v>7.0915226267638847</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5827,11 +5827,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5916282181197356</v>
+        <v>9.6533029111407931</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>6.8640707182247569</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -5840,11 +5840,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0309973458986104</v>
+        <v>8.2046868208570842</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -5853,11 +5853,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5255381070844933</v>
+        <v>6.6348515650433253</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2655784728711481</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5866,11 +5866,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3585351976496991</v>
+        <v>8.01551591294389</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6862112441176969</v>
+        <v>5.0073444733965138</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -5879,11 +5879,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5891670834893752</v>
+        <v>1.5929968260946765</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -5892,11 +5892,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0834865347469513</v>
+        <v>5.8159448558419129</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3228762905890559</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -5905,11 +5905,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7167342553122236</v>
+        <v>5.8913566132071873</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5437969215964618</v>
+        <v>4.533993107118734</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -5918,11 +5918,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2511450471630265</v>
+        <v>9.1905750228997132</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9847742256009946</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -5931,11 +5931,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3596581390362061</v>
+        <v>6.6118960440504608</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>7.761302262971002</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -5944,11 +5944,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4367516743400834</v>
+        <v>5.8817954016375777</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7789424604033526</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -5957,11 +5957,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9277726541728768</v>
+        <v>6.3662302099003041</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6877305442050483</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -5970,11 +5970,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8166057693242363</v>
+        <v>7.9108470231761077</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>3.811332855563994</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -5983,11 +5983,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6014056142316697</v>
+        <v>9.2529802180749119</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1763184748401603</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -5996,11 +5996,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9584779840016315</v>
+        <v>7.53097460681178</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>5.679161490916524</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -6009,11 +6009,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>7.597298966307803</v>
+        <v>6.7405316222253724</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9854961784873293</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -6022,11 +6022,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8703134425373449</v>
+        <v>8.230184901030734</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9776919166955302</v>
+        <v>6.3399627609169</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -6035,11 +6035,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4764286929314583</v>
+        <v>9.0137352649930804</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1992133369591862</v>
+        <v>6.391931739385603</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -6048,11 +6048,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>9.053489308858456</v>
+        <v>4.6056011356530551</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.928434069807782</v>
+        <v>7.0569131985244784</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -6061,11 +6061,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5946575126578466</v>
+        <v>7.042357975070674</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9969599683070207</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -6074,11 +6074,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1830371321679278</v>
+        <v>7.0084662873708501</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6162273016830095</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -6087,11 +6087,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9740484028916594</v>
+        <v>9.3660023968052979</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -6100,11 +6100,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7174540250188155</v>
+        <v>6.819318114529958</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3364630775079345</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -6113,11 +6113,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>4.463804056049506</v>
+        <v>9.0716896980260326</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -6126,11 +6126,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9316720147161845</v>
+        <v>9.5250148516163957</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>5.7314492657943674</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -6139,11 +6139,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9486044243368505</v>
+        <v>6.2884555443548447</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3543725181693196</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -6152,11 +6152,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9102422599832094</v>
+        <v>7.6823000456761488</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4296478660770395</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -6165,11 +6165,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7054597006646937</v>
+        <v>9.4709716182361152</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -6178,11 +6178,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8232496173490187</v>
+        <v>7.1157072740879501</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -6191,11 +6191,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4998313810822452</v>
+        <v>8.2475484446589711</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>8.531932158805958</v>
+        <v>5.5597069710430596</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -6204,11 +6204,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6419002674270633</v>
+        <v>8.8113785003993392</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3697091658789358</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -6217,11 +6217,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>5.443596813826975</v>
+        <v>9.9624052353488377</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8004616939590106</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -6230,11 +6230,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7332187947086126</v>
+        <v>8.9746928453261621</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -6243,11 +6243,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4649563224057287</v>
+        <v>9.3779716655262995</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -6256,11 +6256,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3947000859340779</v>
+        <v>8.59914176219044</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0233791864865758</v>
+        <v>7.8751817492579397</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -6269,11 +6269,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6933758203085691</v>
+        <v>4.3880960241193385</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>5.7057297726878424</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -6282,11 +6282,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3883925785419331</v>
+        <v>5.906340931147656</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>3.7454900990344768</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7701861323912205</v>
+        <v>9.6132938969148931</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -6308,11 +6308,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0975970243915896</v>
+        <v>9.9760206392220958</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -6321,11 +6321,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9809946726730425</v>
+        <v>9.2629935030902573</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9573003837101668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -6334,11 +6334,11 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>6.359448402921176</v>
+        <v>6.9109759171466383</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3311006267088681</v>
+        <v>7.6825055051416262</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -6347,11 +6347,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>7.040081753146616</v>
+        <v>8.1583588929830917</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0090466777867295</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -6360,11 +6360,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6644371896938743</v>
+        <v>4.7629351656880017</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -6373,11 +6373,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9278163582559351</v>
+        <v>6.0196113814487386</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9739086310928249</v>
+        <v>6.8817825618799304</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -6386,11 +6386,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>8.191849569515778</v>
+        <v>8.9609560778375013</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>6.3569426296215337</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -6399,11 +6399,11 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3428001385735655</v>
+        <v>8.9241255813920635</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1828260542123754</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -6412,11 +6412,11 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9625255797252752</v>
+        <v>7.7981656858182253</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>6.0464627293282138</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -6425,11 +6425,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="1"/>
-        <v>6.639967006321287</v>
+        <v>8.1401745928401077</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.3976322225772009</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -6438,11 +6438,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3072863002572275</v>
+        <v>9.0278635934722136</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -6451,11 +6451,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3548034381798981</v>
+        <v>5.0288329201242341</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9423550849903881</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -6464,11 +6464,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2896365556121312</v>
+        <v>7.6815871141930874</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2975557093443459</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -6477,11 +6477,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8321016106675678</v>
+        <v>5.5024798819080223</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -6490,11 +6490,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0616531422481703</v>
+        <v>9.124587778379011</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0313742157598194</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -6503,11 +6503,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2949717696286651</v>
+        <v>4.0446177835376584</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8997206764895225</v>
+        <v>6.3046559303103571</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -6516,11 +6516,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9063707266363359</v>
+        <v>9.7183954248032336</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6271689574780144</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -6529,11 +6529,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0120856823855711</v>
+        <v>4.809284332241301</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -6542,11 +6542,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5615607356208709</v>
+        <v>7.739369286775923</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3070845551948675</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -6555,11 +6555,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1374481065920605</v>
+        <v>9.9009609593340375</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5960843332707668</v>
+        <v>6.8990549871521498</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -6568,11 +6568,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7956758266538833</v>
+        <v>9.3081129861428984</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4886917825046391</v>
+        <v>7.7852866392135374</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -6581,11 +6581,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3729129931198099</v>
+        <v>4.0244457539384593</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6587993623569499</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -6594,11 +6594,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4169723253674071</v>
+        <v>8.0632662297211262</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6700356266050935</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -6607,11 +6607,11 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:B103" ca="1" si="3">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>9.2390603822853272</v>
+        <v>7.4654137102700524</v>
       </c>
       <c r="C83">
         <f t="shared" ref="C83:C146" ca="1" si="4">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>8.4182386091353774</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -6620,11 +6620,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6101246278405501</v>
+        <v>5.8991469804613708</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4400252641077298</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -6633,11 +6633,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2541082433413759</v>
+        <v>4.3859591405957694</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.1328396010592421</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -6646,11 +6646,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1439388291351129</v>
+        <v>7.2649845403169406</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4343702214189964</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -6659,11 +6659,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5354944424640475</v>
+        <v>7.8682747439600593</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9477482242100201</v>
+        <v>7.8053724971363154</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -6672,11 +6672,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7196750792024815</v>
+        <v>7.9167048631110877</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -6685,11 +6685,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>9.022491891776566</v>
+        <v>6.7734380755264354</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5756331584041856</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -6698,11 +6698,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6658741528165102</v>
+        <v>8.2239009037324067</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -6711,11 +6711,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2845223181634147</v>
+        <v>5.3852963664201177</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>8.8057802868363986</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -6724,11 +6724,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4162556278009948</v>
+        <v>4.3135566756369297</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5304768829006576</v>
+        <v>7.6025883835745329</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -6737,11 +6737,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5346846264221803</v>
+        <v>8.6041378916009918</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6043952108598987</v>
+        <v>5.066954465000606</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -6750,11 +6750,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3684900171831131</v>
+        <v>2.279951105117167</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>5.4811047374085486</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -6763,11 +6763,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8997206915728899</v>
+        <v>9.5670708684356764</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -6776,11 +6776,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>6.596474374078853</v>
+        <v>9.5166983166741126</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4772799108596306</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -6789,11 +6789,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0531820746382596</v>
+        <v>7.757357104366184</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1479223295537029</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -6802,11 +6802,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>5.941704356357655</v>
+        <v>8.5725400882500935</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -6815,11 +6815,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2687216375971264</v>
+        <v>7.5264105154266208</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>6.6279168069993393</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -6828,11 +6828,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6877714826434005</v>
+        <v>3.8507892652416089</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>6.4370938414735361</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -6841,11 +6841,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2759425986397659</v>
+        <v>6.7709637687995929</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2202024234587237</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -6854,11 +6854,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7898743442162193</v>
+        <v>7.8611196233782712</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="4"/>
-        <v>6.971958236223788</v>
+        <v>5.2822686786947912</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -6867,11 +6867,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4114686670987791</v>
+        <v>8.3578399289356948</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7253188842026201</v>
+        <v>7.4589859484833942</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -6880,11 +6880,11 @@
       </c>
       <c r="B104">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>5.4892975825860111</v>
+        <v>9.2884342496454799</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -6893,11 +6893,11 @@
       </c>
       <c r="B105">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>7.454778650745415</v>
+        <v>6.0317612605508728</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -6906,11 +6906,11 @@
       </c>
       <c r="B106">
         <f t="shared" ref="B106:B114" ca="1" si="5">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>9.5615762189131619</v>
+        <v>9.9825490491703377</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8815001848608226</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="5"/>
-        <v>3.354674100008272</v>
+        <v>3.2183240638555208</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5310712266427249</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -6932,11 +6932,11 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8535904968857961</v>
+        <v>9.7452995648855065</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7297302166003128</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -6945,11 +6945,11 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5891917679210312</v>
+        <v>8.9820479468246486</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -6958,11 +6958,11 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="5"/>
-        <v>9.363972477508538</v>
+        <v>8.0823622819844321</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4154833242911362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -6971,11 +6971,11 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0544923037281073</v>
+        <v>9.4650191971992541</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2294588153072219</v>
+        <v>4.3896604200307889</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -6984,11 +6984,11 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8326073532811566</v>
+        <v>8.4679059224225952</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
@@ -6997,11 +6997,11 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8460484889840663</v>
+        <v>9.7368229399333046</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="4"/>
-        <v>6.283742347417232</v>
+        <v>7.355463131761212</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
@@ -7010,11 +7010,11 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9402354925590881</v>
+        <v>3.8859030186726269</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3791593511133016</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
@@ -7023,11 +7023,11 @@
       </c>
       <c r="B115">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>6.5819021821803929</v>
+        <v>3.937457998552639</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1514362188676337</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
@@ -7036,11 +7036,11 @@
       </c>
       <c r="B116">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>8.6215228192727622</v>
+        <v>9.4952035791397442</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
@@ -7049,11 +7049,11 @@
       </c>
       <c r="B117">
         <f t="shared" ref="B117:B180" ca="1" si="6">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>7.4673209405264371</v>
+        <v>8.4696712733152228</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1112563000780149</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
@@ -7062,11 +7062,11 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1360935147306161</v>
+        <v>6.6189638639502686</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6712509562386844</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
@@ -7075,11 +7075,11 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3092738739874203</v>
+        <v>9.2691524554497899</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>4.0340661502127801</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
@@ -7088,11 +7088,11 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="6"/>
-        <v>7.445679581233299</v>
+        <v>6.6616085067586006</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>6.7487783556325898</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -7101,11 +7101,11 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4543007327876243</v>
+        <v>9.3345263350052914</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -7114,11 +7114,11 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9456176300998127</v>
+        <v>7.4534646073805524</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4111342869237955</v>
+        <v>7.8642984590027361</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -7127,11 +7127,11 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6772685508011564</v>
+        <v>3.0545814100178337</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
@@ -7140,11 +7140,11 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5212443998800067</v>
+        <v>4.1926333289861812</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4990313002142166</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -7153,11 +7153,11 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2067392735111424</v>
+        <v>4.1148928471213244</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9595299860974595</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -7166,11 +7166,11 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2676898087331061</v>
+        <v>5.1593573822583636</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="4"/>
-        <v>8.8274265832255718</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -7179,11 +7179,11 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="6"/>
-        <v>7.81101655576194</v>
+        <v>8.3431269928816505</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7200400229350556</v>
+        <v>7.3067383766493776</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -7192,11 +7192,11 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4102334479791292</v>
+        <v>4.6119286763782821</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -7205,11 +7205,11 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="6"/>
-        <v>5.871339511621839</v>
+        <v>8.0944023064976331</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2304413360555717</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -7218,11 +7218,11 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8147240000506679</v>
+        <v>3.2523860926864785</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -7231,11 +7231,11 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1493186822554531</v>
+        <v>7.2785761460475396</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1691905732300611</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -7244,11 +7244,11 @@
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3042590370349538</v>
+        <v>8.2023859793657525</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -7257,11 +7257,11 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="6"/>
-        <v>7.003549975684197</v>
+        <v>7.28613400195289</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0444834171326738</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -7270,11 +7270,11 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4309524114796206</v>
+        <v>6.5709658637907626</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1741291392544166</v>
+        <v>6.1946257556981141</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6871775259541231</v>
+        <v>6.3821636986474877</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8555701946953453</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -7296,11 +7296,11 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9781436426925474</v>
+        <v>7.9211534547709155</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -7309,11 +7309,11 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9487685334563594</v>
+        <v>8.9665356959453835</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -7322,11 +7322,11 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7202185231936564</v>
+        <v>8.5219758745115559</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>3.7072812240953885</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
@@ -7335,11 +7335,11 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1335479351439535</v>
+        <v>9.2921229304133615</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3956272865509582</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
@@ -7348,11 +7348,11 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7235869846046237</v>
+        <v>4.0908015937242563</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -7361,11 +7361,11 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7448360028882011</v>
+        <v>7.7357410627164578</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.2212315034662531</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
@@ -7374,11 +7374,11 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8173881642548944</v>
+        <v>6.6242139944258076</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="4"/>
-        <v>7.90040015603687</v>
+        <v>7.1209471587491775</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
@@ -7387,11 +7387,11 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9691552236463288</v>
+        <v>6.8079879446373868</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
@@ -7400,11 +7400,11 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8482682057995277</v>
+        <v>9.9384713645058813</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="4"/>
-        <v>8.8183312700050287</v>
+        <v>6.585170816502016</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
@@ -7413,11 +7413,11 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4432884053572952</v>
+        <v>4.998375883235763</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5068274755364044</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -7426,11 +7426,11 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1909910152138927</v>
+        <v>9.4656827692036956</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -7439,11 +7439,11 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6562681404230659</v>
+        <v>6.0585995348012691</v>
       </c>
       <c r="C147">
         <f t="shared" ref="C147:C210" ca="1" si="7">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>9.5743085539290096</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -7452,11 +7452,11 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4510845487880726</v>
+        <v>4.9520786851315304</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0621761052451308</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -7465,11 +7465,11 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9912582437424486</v>
+        <v>9.526415691488582</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>4.5612486116925197</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -7478,11 +7478,11 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8778972104200973</v>
+        <v>7.6281145721006736</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4242260492505885</v>
+        <v>5.5923417056912594</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -7491,11 +7491,11 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4244270968374551</v>
+        <v>9.8161863743671489</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.3951220364837305</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
@@ -7504,11 +7504,11 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9894428013682486</v>
+        <v>8.2503054372140969</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -7517,11 +7517,11 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="6"/>
-        <v>7.638503990100161</v>
+        <v>8.4879706602318024</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>2.376495498370252</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
@@ -7530,11 +7530,11 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7280629640290819</v>
+        <v>8.6719880744905762</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9562377229954855</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="6"/>
-        <v>7.891250090676178</v>
+        <v>9.9034857485851173</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5156617636068308</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
@@ -7556,11 +7556,11 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="6"/>
-        <v>9.8335868849324104</v>
+        <v>8.9425120200635249</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4113767710230043</v>
+        <v>5.8886026024860447</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
@@ -7569,11 +7569,11 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4716890558868307</v>
+        <v>8.0301342141875232</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9079337587492722</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
@@ -7582,11 +7582,11 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9107004481838281</v>
+        <v>3.6763687279431831</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
@@ -7595,11 +7595,11 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3413387579683107</v>
+        <v>7.8487782572254954</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0215667231070995</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
@@ -7608,11 +7608,11 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="6"/>
-        <v>5.760668065008927</v>
+        <v>9.2320662675241874</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
@@ -7621,11 +7621,11 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="6"/>
-        <v>6.863174044970652</v>
+        <v>6.6395261541240549</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0929691898549105</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
@@ -7634,11 +7634,11 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0574475656946385</v>
+        <v>5.1762666243103315</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
@@ -7647,11 +7647,11 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="6"/>
-        <v>6.586686571309583</v>
+        <v>7.202366071072424</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0897599065467869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
@@ -7660,11 +7660,11 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2066574993489869</v>
+        <v>9.5679443316594384</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1572032577775122</v>
+        <v>5.0842723085471411</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
@@ -7673,11 +7673,11 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="6"/>
-        <v>9.718598814846974</v>
+        <v>7.7545785640809148</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1904805883915905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
@@ -7686,11 +7686,11 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6925195916358442</v>
+        <v>5.8960465930168766</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.7600201089271632</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
@@ -7699,11 +7699,11 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1335413541643327</v>
+        <v>8.8300256604939271</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1594857149489233</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
@@ -7712,11 +7712,11 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0960371404671374</v>
+        <v>5.0233839746106694</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.916105472173216</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="6"/>
-        <v>7.443206317102244</v>
+        <v>8.7394563894580983</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="7"/>
-        <v>3.969248321063656</v>
+        <v>5.5005843607285554</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
@@ -7738,11 +7738,11 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1924828941308423</v>
+        <v>8.5514812885790175</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>5.4095270693419399</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
@@ -7751,11 +7751,11 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4524686330195031</v>
+        <v>6.1934694308034928</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
@@ -7764,11 +7764,11 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2819944688906215</v>
+        <v>9.331437496671148</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.8790928601602683</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
@@ -7777,11 +7777,11 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9256360025619461</v>
+        <v>7.0603674912709726</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.7334464774447786</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
@@ -7790,11 +7790,11 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5244755470763351</v>
+        <v>5.6131681115912375</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3500492526381453</v>
+        <v>5.2160262790463197</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
@@ -7803,11 +7803,11 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0953536559954706</v>
+        <v>8.6889598980860363</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
@@ -7816,11 +7816,11 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9581229752985054</v>
+        <v>3.8032493543091679</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6354925624736953</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
@@ -7829,11 +7829,11 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2173575886090653</v>
+        <v>3.1733575698972984</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
@@ -7842,11 +7842,11 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9520926670859975</v>
+        <v>5.9195910103127627</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1232138629592692</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
@@ -7855,11 +7855,11 @@
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7280451635766143</v>
+        <v>8.0904866159014936</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.9065918163896391</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
@@ -7868,11 +7868,11 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4638082793111238</v>
+        <v>1.8792258001470632</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6753470733961393</v>
+        <v>5.5498952047888581</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
@@ -7881,11 +7881,11 @@
       </c>
       <c r="B181">
         <f t="shared" ref="B181:B244" ca="1" si="8">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>7.5611650424402903</v>
+        <v>6.3724684485556065</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7009688906268252</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
@@ -7894,11 +7894,11 @@
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8619333990216482</v>
+        <v>8.4599596725044375</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0663833750757252</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
@@ -7907,11 +7907,11 @@
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7066738696558552</v>
+        <v>9.3779928688979677</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.9178888733738351</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
@@ -7920,11 +7920,11 @@
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5284549715395519</v>
+        <v>8.9279286493233005</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="7"/>
-        <v>9.2077790456787731</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
@@ -7933,11 +7933,11 @@
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4166959886227737</v>
+        <v>9.9601183536705626</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0980130443342961</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
@@ -7946,11 +7946,11 @@
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3800415942493283</v>
+        <v>6.104372340066643</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>5.3272759277351671</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
@@ -7959,11 +7959,11 @@
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7534643141132218</v>
+        <v>7.7180280658536864</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
@@ -7972,11 +7972,11 @@
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="8"/>
-        <v>4.647096138855515</v>
+        <v>8.2595630262415067</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
@@ -7985,11 +7985,11 @@
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4332673974618215</v>
+        <v>3.2415060838333236</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6010269795964884</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
@@ -7998,11 +7998,11 @@
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2961286257342159</v>
+        <v>7.3740185650520775</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
@@ -8011,11 +8011,11 @@
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="8"/>
-        <v>6.2094048297696425</v>
+        <v>4.0317175985765061</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
@@ -8024,11 +8024,11 @@
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="8"/>
-        <v>9.9045250923247004</v>
+        <v>7.2264619542247015</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>6.6101056081384204</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
@@ -8037,11 +8037,11 @@
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5917885147452537</v>
+        <v>6.0835454070120605</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>3.1381305216933209</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
@@ -8050,11 +8050,11 @@
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6220146207281054</v>
+        <v>7.3960550437406685</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
@@ -8063,11 +8063,11 @@
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9923546204457345</v>
+        <v>5.8236643131680932</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3231118296224631</v>
+        <v>6.3221307540983176</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
@@ -8076,11 +8076,11 @@
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8803423057088633</v>
+        <v>5.1570554059639981</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0238034143459256</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
@@ -8089,11 +8089,11 @@
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="8"/>
-        <v>7.9125873061816359</v>
+        <v>9.7212823336176548</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>5.010511997105751</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
@@ -8102,11 +8102,11 @@
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3069390738144104</v>
+        <v>8.5328100861906737</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0566086770289127</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
@@ -8115,11 +8115,11 @@
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3268873031499488</v>
+        <v>7.6929078592116458</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6595631884218394</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
@@ -8128,11 +8128,11 @@
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0436739198358662</v>
+        <v>9.0867836824739516</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.7545835600549911</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
@@ -8141,11 +8141,11 @@
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1759113322241674</v>
+        <v>5.2878798610991673</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
@@ -8154,11 +8154,11 @@
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3132783436311062</v>
+        <v>7.7416976458695848</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5617229383037188</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5761057387681134</v>
+        <v>8.5737218829921886</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>5.4615228030625369</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
@@ -8180,11 +8180,11 @@
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4381668186274972</v>
+        <v>8.0155467615110219</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4436762066155016</v>
+        <v>5.7409874516394774</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
@@ -8193,11 +8193,11 @@
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="8"/>
-        <v>9.7760940430433187</v>
+        <v>8.4059836825736536</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3524468396466638</v>
+        <v>6.3442105702080944</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
@@ -8206,11 +8206,11 @@
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3508394844118996</v>
+        <v>8.0364937579590769</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3500016456510266</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
@@ -8219,11 +8219,11 @@
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7737997376387025</v>
+        <v>9.423357087472489</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1469536686078463</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
@@ -8232,11 +8232,11 @@
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3249275250944113</v>
+        <v>8.6195996301309279</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5960843332707668</v>
+        <v>5.783719383233116</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
@@ -8245,11 +8245,11 @@
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4400478557624208</v>
+        <v>8.4838152051596296</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="7"/>
-        <v>4.224858845838444</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
@@ -8258,11 +8258,11 @@
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="8"/>
-        <v>5.7329690812201983</v>
+        <v>4.5044481715101101</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6726709067989747</v>
+        <v>4.8694222565785337</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
@@ -8271,11 +8271,11 @@
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="8"/>
-        <v>7.9253045619214113</v>
+        <v>7.2786261149688949</v>
       </c>
       <c r="C211">
         <f t="shared" ref="C211:C274" ca="1" si="9">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>8.1492937192478188</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
@@ -8284,11 +8284,11 @@
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3200518612445507</v>
+        <v>6.3291584667241469</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5323474772666659</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
@@ -8297,11 +8297,11 @@
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2783914691622318</v>
+        <v>3.7941542350054247</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0605905535231699</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
@@ -8310,11 +8310,11 @@
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5597949491601355</v>
+        <v>9.6216226684486816</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
@@ -8323,11 +8323,11 @@
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="8"/>
-        <v>5.856360766677458</v>
+        <v>2.2248673511500403</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8561869783293279</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
@@ -8336,11 +8336,11 @@
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="8"/>
-        <v>8.4590794155782589</v>
+        <v>7.7901778303937004</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>5.8058564268415846</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
@@ -8349,11 +8349,11 @@
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1238035570305325</v>
+        <v>6.8898312238092849</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8314660001130498</v>
+        <v>6.6797151785840079</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
@@ -8362,11 +8362,11 @@
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="8"/>
-        <v>8.151887504333903</v>
+        <v>3.7333664154115</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.5605417168248614</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
@@ -8375,11 +8375,11 @@
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="8"/>
-        <v>4.4850916637060969</v>
+        <v>5.1518480082326832</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6049909570954473</v>
+        <v>5.4875964709754825</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
@@ -8388,11 +8388,11 @@
       </c>
       <c r="B220">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6592636040277426</v>
+        <v>7.3660004529403835</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4453718007388252</v>
+        <v>7.8138884592694478</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
@@ -8401,11 +8401,11 @@
       </c>
       <c r="B221">
         <f t="shared" ca="1" si="8"/>
-        <v>9.0780994705043128</v>
+        <v>4.268079261815668</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2487220864103143</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
@@ -8414,11 +8414,11 @@
       </c>
       <c r="B222">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5401519404599666</v>
+        <v>6.7193069533583394</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
@@ -8427,11 +8427,11 @@
       </c>
       <c r="B223">
         <f t="shared" ca="1" si="8"/>
-        <v>5.16252168592254</v>
+        <v>9.1389786610696717</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0024080645415552</v>
+        <v>6.9320868114405902</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
@@ -8440,11 +8440,11 @@
       </c>
       <c r="B224">
         <f t="shared" ca="1" si="8"/>
-        <v>7.257012450749821</v>
+        <v>7.1438187226367482</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>5.8269745041623802</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
@@ -8453,11 +8453,11 @@
       </c>
       <c r="B225">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5079155600997005</v>
+        <v>8.1329746273582568</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2396265149303876</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
@@ -8466,11 +8466,11 @@
       </c>
       <c r="B226">
         <f t="shared" ca="1" si="8"/>
-        <v>6.58621589248588</v>
+        <v>6.3444570420399709</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1630095751101877</v>
+        <v>3.7046326163073307</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
@@ -8479,11 +8479,11 @@
       </c>
       <c r="B227">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8364575104012681</v>
+        <v>7.2374100447621981</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
@@ -8492,11 +8492,11 @@
       </c>
       <c r="B228">
         <f t="shared" ca="1" si="8"/>
-        <v>7.9022318424738431</v>
+        <v>6.3831722540476541</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7243577748388565</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
@@ -8505,11 +8505,11 @@
       </c>
       <c r="B229">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8217546627477406</v>
+        <v>8.5401193983958876</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9059031631777419</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
@@ -8518,11 +8518,11 @@
       </c>
       <c r="B230">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6236351600307675</v>
+        <v>8.919994591565894</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>4.857623374430653</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
@@ -8531,11 +8531,11 @@
       </c>
       <c r="B231">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3119751378252271</v>
+        <v>9.014802377899839</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="9"/>
-        <v>8.107125346867857</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
@@ -8544,11 +8544,11 @@
       </c>
       <c r="B232">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8183205810418475</v>
+        <v>8.2872119540737508</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9580546504310119</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
@@ -8557,11 +8557,11 @@
       </c>
       <c r="B233">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3588958433036957</v>
+        <v>7.5539135758593456</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3291838050187925</v>
+        <v>7.1691587889720463</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
@@ -8570,11 +8570,11 @@
       </c>
       <c r="B234">
         <f t="shared" ca="1" si="8"/>
-        <v>7.7828164555263708</v>
+        <v>9.9451988002087237</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
@@ -8583,11 +8583,11 @@
       </c>
       <c r="B235">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9060220192265414</v>
+        <v>8.4859939455670084</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="9"/>
-        <v>8.402650261355598</v>
+        <v>7.2358079571432841</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
@@ -8596,11 +8596,11 @@
       </c>
       <c r="B236">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1222596527655266</v>
+        <v>6.7091601336826407</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
@@ -8609,11 +8609,11 @@
       </c>
       <c r="B237">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8445223654430514</v>
+        <v>2.6453797953675089</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
@@ -8622,11 +8622,11 @@
       </c>
       <c r="B238">
         <f t="shared" ca="1" si="8"/>
-        <v>9.195607748946319</v>
+        <v>5.5660714364222201</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="9"/>
-        <v>9.177190620973926</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
@@ -8635,11 +8635,11 @@
       </c>
       <c r="B239">
         <f t="shared" ca="1" si="8"/>
-        <v>4.8664846182340131</v>
+        <v>9.1775466517394939</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>5.7695596980307036</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
@@ -8648,11 +8648,11 @@
       </c>
       <c r="B240">
         <f t="shared" ca="1" si="8"/>
-        <v>6.2652605103225625</v>
+        <v>6.9422838047529831</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1637924523371979</v>
+        <v>4.7817420037628287</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
@@ -8661,11 +8661,11 @@
       </c>
       <c r="B241">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8957136393231533</v>
+        <v>9.5031416474027584</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0822693316397975</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
@@ -8674,11 +8674,11 @@
       </c>
       <c r="B242">
         <f t="shared" ca="1" si="8"/>
-        <v>6.167352058253563</v>
+        <v>9.6582135710658505</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.8642473021631094</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
@@ -8687,11 +8687,11 @@
       </c>
       <c r="B243">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5184069942496663</v>
+        <v>7.3680193018004356</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2656523259557559</v>
+        <v>4.2937682992076969</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
@@ -8700,11 +8700,11 @@
       </c>
       <c r="B244">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8234750631903163</v>
+        <v>8.1475014894563884</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
@@ -8713,11 +8713,11 @@
       </c>
       <c r="B245">
         <f t="shared" ref="B245:B305" ca="1" si="10">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>9.382555459914391</v>
+        <v>4.4156014438625526</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="9"/>
-        <v>3.603082353188146</v>
+        <v>3.3826346146829565</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
@@ -8726,11 +8726,11 @@
       </c>
       <c r="B246">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9592246050083038</v>
+        <v>7.8832399203054324</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9534230054166688</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
@@ -8739,11 +8739,11 @@
       </c>
       <c r="B247">
         <f t="shared" ca="1" si="10"/>
-        <v>8.3658127342943054</v>
+        <v>7.4560652511689733</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>6.8093817531522376</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
@@ -8752,11 +8752,11 @@
       </c>
       <c r="B248">
         <f t="shared" ca="1" si="10"/>
-        <v>7.801307147946094</v>
+        <v>6.2382939842702703</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8543957191436968</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
@@ -8765,11 +8765,11 @@
       </c>
       <c r="B249">
         <f t="shared" ca="1" si="10"/>
-        <v>9.9239293135328772</v>
+        <v>7.7191134138410469</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4304253756418603</v>
+        <v>7.5313611556633386</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
@@ -8778,11 +8778,11 @@
       </c>
       <c r="B250">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2011831881910329</v>
+        <v>5.8100329032119147</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9691511701267785</v>
+        <v>6.9085243497070188</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="B251">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3977886402932898</v>
+        <v>6.6439417647444188</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.4379793368051095</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
@@ -8804,11 +8804,11 @@
       </c>
       <c r="B252">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1593475697484417</v>
+        <v>4.9219843059397048</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>3.1655130721728408</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
@@ -8817,11 +8817,11 @@
       </c>
       <c r="B253">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7397093821422382</v>
+        <v>6.476023166769961</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2700907947318374</v>
+        <v>5.5511389631467605</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
@@ -8830,11 +8830,11 @@
       </c>
       <c r="B254">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5602158805593991</v>
+        <v>7.8886302681384421</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0903200407504112</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
@@ -8843,11 +8843,11 @@
       </c>
       <c r="B255">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7523665552736478</v>
+        <v>6.6736476624273404</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9252507375677954</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
@@ -8856,11 +8856,11 @@
       </c>
       <c r="B256">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6268254935342359</v>
+        <v>5.3250083013870348</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2474434567635324</v>
+        <v>7.6562814436015536</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
@@ -8869,11 +8869,11 @@
       </c>
       <c r="B257">
         <f t="shared" ca="1" si="10"/>
-        <v>9.4716087650067227</v>
+        <v>9.3707021640110941</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9925764894450895</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
@@ -8882,11 +8882,11 @@
       </c>
       <c r="B258">
         <f t="shared" ca="1" si="10"/>
-        <v>7.7369535573972756</v>
+        <v>8.8015751452412392</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>6.6470559803785285</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
@@ -8895,11 +8895,11 @@
       </c>
       <c r="B259">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1249986543675252</v>
+        <v>6.5685244019545577</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
@@ -8908,11 +8908,11 @@
       </c>
       <c r="B260">
         <f t="shared" ca="1" si="10"/>
-        <v>9.284763343167457</v>
+        <v>4.8084731512880792</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
@@ -8921,11 +8921,11 @@
       </c>
       <c r="B261">
         <f t="shared" ca="1" si="10"/>
-        <v>9.1084500757568669</v>
+        <v>8.8784241134470037</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6357034836384603</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
@@ -8934,11 +8934,11 @@
       </c>
       <c r="B262">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2463404243434271</v>
+        <v>6.121964353894918</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3280438044416041</v>
+        <v>2.2117472826247333</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
@@ -8947,11 +8947,11 @@
       </c>
       <c r="B263">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0204729704140068</v>
+        <v>5.9874333021502633</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
@@ -8960,11 +8960,11 @@
       </c>
       <c r="B264">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8589483725321099</v>
+        <v>3.7792630442299773</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2753766661225754</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
@@ -8973,11 +8973,11 @@
       </c>
       <c r="B265">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3435986727776239</v>
+        <v>7.5976886381432083</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
@@ -8986,11 +8986,11 @@
       </c>
       <c r="B266">
         <f t="shared" ca="1" si="10"/>
-        <v>8.3583359103960326</v>
+        <v>4.2047170822908067</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="9"/>
-        <v>8.854018146438122</v>
+        <v>7.255160654266863</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
@@ -8999,11 +8999,11 @@
       </c>
       <c r="B267">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8459814472748368</v>
+        <v>9.437038229909291</v>
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2783210951970982</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
@@ -9012,11 +9012,11 @@
       </c>
       <c r="B268">
         <f t="shared" ca="1" si="10"/>
-        <v>9.2140010279232794</v>
+        <v>4.6830611776998996</v>
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2762343600433024</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
@@ -9025,11 +9025,11 @@
       </c>
       <c r="B269">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3266226058058024</v>
+        <v>6.6091735940496186</v>
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0918867309552933</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
@@ -9038,11 +9038,11 @@
       </c>
       <c r="B270">
         <f t="shared" ca="1" si="10"/>
-        <v>5.4647510596157769</v>
+        <v>4.6108274505117626</v>
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6343916454283907</v>
+        <v>6.958707580333467</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
@@ -9051,11 +9051,11 @@
       </c>
       <c r="B271">
         <f t="shared" ca="1" si="10"/>
-        <v>4.7892528436990629</v>
+        <v>9.1512336525556659</v>
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
@@ -9064,11 +9064,11 @@
       </c>
       <c r="B272">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9772979177944778</v>
+        <v>8.1077280740245747</v>
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="9"/>
-        <v>4.952965918571997</v>
+        <v>5.9318013358638133</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
@@ -9077,11 +9077,11 @@
       </c>
       <c r="B273">
         <f t="shared" ca="1" si="10"/>
-        <v>4.4422269526871663</v>
+        <v>9.7861427975669706</v>
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
@@ -9090,11 +9090,11 @@
       </c>
       <c r="B274">
         <f t="shared" ca="1" si="10"/>
-        <v>9.0008662295989801</v>
+        <v>8.2764428758858077</v>
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5960843332707668</v>
+        <v>5.6949090190647844</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
@@ -9103,11 +9103,11 @@
       </c>
       <c r="B275">
         <f t="shared" ca="1" si="10"/>
-        <v>4.245303275512307</v>
+        <v>9.7970160742768666</v>
       </c>
       <c r="C275">
         <f t="shared" ref="C275:C338" ca="1" si="11">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>9.1635909258695865</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
@@ -9116,11 +9116,11 @@
       </c>
       <c r="B276">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4227286646401467</v>
+        <v>3.6631780628777051</v>
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>3.5730975649944066</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
@@ -9129,11 +9129,11 @@
       </c>
       <c r="B277">
         <f t="shared" ca="1" si="10"/>
-        <v>9.859438137515161</v>
+        <v>7.4060154052871905</v>
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1536309988389881</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
@@ -9142,11 +9142,11 @@
       </c>
       <c r="B278">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4850473358213581</v>
+        <v>2.6208832260900952</v>
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
@@ -9155,11 +9155,11 @@
       </c>
       <c r="B279">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8998167492836799</v>
+        <v>2.2677162170833043</v>
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2985710459856765</v>
+        <v>6.4188596536527616</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
@@ -9168,11 +9168,11 @@
       </c>
       <c r="B280">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1924010496136948</v>
+        <v>9.8735398727890136</v>
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="11"/>
-        <v>9.3988335682621518</v>
+        <v>5.1711632771756184</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
@@ -9181,11 +9181,11 @@
       </c>
       <c r="B281">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9257304208067296</v>
+        <v>5.1874853125985441</v>
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
@@ -9194,11 +9194,11 @@
       </c>
       <c r="B282">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8166514311165685</v>
+        <v>7.9180316690052424</v>
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5328976240225689</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
@@ -9207,11 +9207,11 @@
       </c>
       <c r="B283">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4930180860110838</v>
+        <v>9.0695733697908967</v>
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7688900982578915</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
@@ -9220,11 +9220,11 @@
       </c>
       <c r="B284">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1042660201940917</v>
+        <v>7.694502620960316</v>
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7436636778902139</v>
+        <v>7.5107595746970395</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
@@ -9233,11 +9233,11 @@
       </c>
       <c r="B285">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3284789161101749</v>
+        <v>9.2327934109640797</v>
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5936403632821108</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
@@ -9246,11 +9246,11 @@
       </c>
       <c r="B286">
         <f t="shared" ca="1" si="10"/>
-        <v>7.55464600627284</v>
+        <v>4.6251271333359805</v>
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>2.6232987608563914</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
@@ -9259,11 +9259,11 @@
       </c>
       <c r="B287">
         <f t="shared" ca="1" si="10"/>
-        <v>9.6174618548889743</v>
+        <v>9.0191373310290412</v>
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
@@ -9272,11 +9272,11 @@
       </c>
       <c r="B288">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9268396002348283</v>
+        <v>5.1111380273274101</v>
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8901350290853856</v>
+        <v>7.7580647384298889</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
@@ -9285,11 +9285,11 @@
       </c>
       <c r="B289">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2360534701532888</v>
+        <v>5.7003238600813475</v>
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4828986923565735</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
@@ -9298,11 +9298,11 @@
       </c>
       <c r="B290">
         <f t="shared" ca="1" si="10"/>
-        <v>9.2364584808699117</v>
+        <v>9.4503152875112733</v>
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
@@ -9311,11 +9311,11 @@
       </c>
       <c r="B291">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6814838290595979</v>
+        <v>4.5978401854990238</v>
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
@@ -9324,11 +9324,11 @@
       </c>
       <c r="B292">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3072203300500398</v>
+        <v>4.2193768994885321</v>
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>6.6057147413288089</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
@@ -9337,11 +9337,11 @@
       </c>
       <c r="B293">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3053823359204371</v>
+        <v>6.3824496578142345</v>
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
@@ -9350,11 +9350,11 @@
       </c>
       <c r="B294">
         <f t="shared" ca="1" si="10"/>
-        <v>8.1843331796794274</v>
+        <v>6.6963306608997648</v>
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
@@ -9363,11 +9363,11 @@
       </c>
       <c r="B295">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1093255638258022</v>
+        <v>8.5902678364134051</v>
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
@@ -9376,11 +9376,11 @@
       </c>
       <c r="B296">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3995980856171784</v>
+        <v>9.3140532813890182</v>
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
@@ -9389,11 +9389,11 @@
       </c>
       <c r="B297">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8304886402993885</v>
+        <v>3.4378394417181557</v>
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5155872531057462</v>
+        <v>3.5069581345064433</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
@@ -9402,11 +9402,11 @@
       </c>
       <c r="B298">
         <f t="shared" ca="1" si="10"/>
-        <v>8.710741800540001</v>
+        <v>9.6729033180547326</v>
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="B299">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4246754118258771</v>
+        <v>8.8628820594755631</v>
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="11"/>
-        <v>8.9824256782654661</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
@@ -9428,11 +9428,11 @@
       </c>
       <c r="B300">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6835051870938411</v>
+        <v>6.7250002389572749</v>
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
@@ -9441,11 +9441,11 @@
       </c>
       <c r="B301">
         <f t="shared" ca="1" si="10"/>
-        <v>8.3611325628233057</v>
+        <v>9.8474126310384431</v>
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7694090125618205</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
@@ -9454,11 +9454,11 @@
       </c>
       <c r="B302">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9988385848133898</v>
+        <v>9.4356744922147477</v>
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8412345017552596</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
@@ -9467,11 +9467,11 @@
       </c>
       <c r="B303">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7947804503709293</v>
+        <v>8.2218003970545439</v>
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8840413152722286</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
@@ -9480,11 +9480,11 @@
       </c>
       <c r="B304">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8324465656883504</v>
+        <v>6.0390276050965426</v>
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
@@ -9493,11 +9493,11 @@
       </c>
       <c r="B305">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8697460799806791</v>
+        <v>7.808572080846961</v>
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="11"/>
-        <v>8.2168445328538962</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
@@ -9506,11 +9506,11 @@
       </c>
       <c r="B306">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>6.35595505944484</v>
+        <v>6.574656117725322</v>
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>6.088248629647226</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
@@ -9519,11 +9519,11 @@
       </c>
       <c r="B307">
         <f ca="1">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>4.8415432245094152</v>
+        <v>7.8556010803282126</v>
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6723771514426291</v>
+        <v>4.4686039305279888</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
@@ -9532,11 +9532,11 @@
       </c>
       <c r="B308">
         <f t="shared" ref="B308:B371" ca="1" si="12">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>7.5274235334278528</v>
+        <v>9.3655018505812393</v>
       </c>
       <c r="C308">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8003205675855725</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
@@ -9545,11 +9545,11 @@
       </c>
       <c r="B309">
         <f t="shared" ca="1" si="12"/>
-        <v>6.1295550436903108</v>
+        <v>6.4635658519635326</v>
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9849086468721229</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
@@ -9558,11 +9558,11 @@
       </c>
       <c r="B310">
         <f t="shared" ca="1" si="12"/>
-        <v>7.5495005782949356</v>
+        <v>1.4757896775687023</v>
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
@@ -9571,11 +9571,11 @@
       </c>
       <c r="B311">
         <f t="shared" ca="1" si="12"/>
-        <v>5.5709858514774995</v>
+        <v>6.8806324947569877</v>
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6459690593109286</v>
+        <v>4.7384037003533859</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
@@ -9584,11 +9584,11 @@
       </c>
       <c r="B312">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4518385691877889</v>
+        <v>7.7914882097922389</v>
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
@@ -9597,11 +9597,11 @@
       </c>
       <c r="B313">
         <f t="shared" ca="1" si="12"/>
-        <v>9.0896504342016726</v>
+        <v>5.5210392800620234</v>
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
@@ -9610,11 +9610,11 @@
       </c>
       <c r="B314">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8650093886768708</v>
+        <v>6.0311158061811092</v>
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3390587664591802</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
@@ -9623,11 +9623,11 @@
       </c>
       <c r="B315">
         <f t="shared" ca="1" si="12"/>
-        <v>9.9321971324390077</v>
+        <v>7.3624209001249721</v>
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
@@ -9636,11 +9636,11 @@
       </c>
       <c r="B316">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5941068290512721</v>
+        <v>7.0570103048470223</v>
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="11"/>
-        <v>7.109915963304223</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
@@ -9649,11 +9649,11 @@
       </c>
       <c r="B317">
         <f t="shared" ca="1" si="12"/>
-        <v>9.7592953050544526</v>
+        <v>9.6425586175251468</v>
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="11"/>
-        <v>7.819979042746529</v>
+        <v>3.7242177666450305</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
@@ -9662,11 +9662,11 @@
       </c>
       <c r="B318">
         <f t="shared" ca="1" si="12"/>
-        <v>9.9159022022354932</v>
+        <v>8.3456008155796741</v>
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
@@ -9675,11 +9675,11 @@
       </c>
       <c r="B319">
         <f t="shared" ca="1" si="12"/>
-        <v>7.1390864292330338</v>
+        <v>9.7809578713097078</v>
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5024815619187004</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
@@ -9688,11 +9688,11 @@
       </c>
       <c r="B320">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5082354477222957</v>
+        <v>7.0144501711181606</v>
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
@@ -9701,11 +9701,11 @@
       </c>
       <c r="B321">
         <f t="shared" ca="1" si="12"/>
-        <v>8.3099811360660851</v>
+        <v>9.919389023363518</v>
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>6.9562177467023805</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
@@ -9714,11 +9714,11 @@
       </c>
       <c r="B322">
         <f t="shared" ca="1" si="12"/>
-        <v>7.7259412307564643</v>
+        <v>2.5029720303990892</v>
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>3.7055812997946163</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
@@ -9727,11 +9727,11 @@
       </c>
       <c r="B323">
         <f t="shared" ca="1" si="12"/>
-        <v>9.9145774521044423</v>
+        <v>8.7122047736675245</v>
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="11"/>
-        <v>9.0136681630004283</v>
+        <v>6.6649671286156531</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
@@ -9740,11 +9740,11 @@
       </c>
       <c r="B324">
         <f t="shared" ca="1" si="12"/>
-        <v>6.0859179851586909</v>
+        <v>5.8189553308010247</v>
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>6.5068814323674875</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
@@ -9753,11 +9753,11 @@
       </c>
       <c r="B325">
         <f t="shared" ca="1" si="12"/>
-        <v>9.3346498534580551</v>
+        <v>9.2363373441260972</v>
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8070212600122471</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
@@ -9766,11 +9766,11 @@
       </c>
       <c r="B326">
         <f t="shared" ca="1" si="12"/>
-        <v>9.4475080984437056</v>
+        <v>6.8274472610333898</v>
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0490211349405048</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
@@ -9779,11 +9779,11 @@
       </c>
       <c r="B327">
         <f t="shared" ca="1" si="12"/>
-        <v>6.1958919881730123</v>
+        <v>9.2834893617807186</v>
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>2.382603882814931</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
@@ -9792,11 +9792,11 @@
       </c>
       <c r="B328">
         <f t="shared" ca="1" si="12"/>
-        <v>5.628669940072399</v>
+        <v>8.2563145458432299</v>
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6020007898750332</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
@@ -9805,11 +9805,11 @@
       </c>
       <c r="B329">
         <f t="shared" ca="1" si="12"/>
-        <v>4.7141961314961431</v>
+        <v>6.9837978957320281</v>
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
@@ -9818,11 +9818,11 @@
       </c>
       <c r="B330">
         <f t="shared" ca="1" si="12"/>
-        <v>7.6141282401277675</v>
+        <v>7.4011512300727187</v>
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
@@ -9831,11 +9831,11 @@
       </c>
       <c r="B331">
         <f t="shared" ca="1" si="12"/>
-        <v>8.955885311385531</v>
+        <v>8.3246794162714668</v>
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7319408203421114</v>
+        <v>6.7224929735870944</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
@@ -9844,11 +9844,11 @@
       </c>
       <c r="B332">
         <f t="shared" ca="1" si="12"/>
-        <v>6.5382462655659008</v>
+        <v>4.1929197119811912</v>
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5065772157548487</v>
+        <v>6.0133444297640235</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
@@ -9857,11 +9857,11 @@
       </c>
       <c r="B333">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3530876146819324</v>
+        <v>9.665687347241974</v>
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>6.0535298127279793</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
@@ -9870,11 +9870,11 @@
       </c>
       <c r="B334">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8621206848709271</v>
+        <v>9.7030213360060475</v>
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.522982265434619</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="B335">
         <f t="shared" ca="1" si="12"/>
-        <v>1.941391330810613</v>
+        <v>8.2486401759518682</v>
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="11"/>
-        <v>8.3523803645455601</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
@@ -9896,11 +9896,11 @@
       </c>
       <c r="B336">
         <f t="shared" ca="1" si="12"/>
-        <v>5.001181914142772</v>
+        <v>7.2222294456297256</v>
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="11"/>
-        <v>9.3553759370525</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
@@ -9909,11 +9909,11 @@
       </c>
       <c r="B337">
         <f t="shared" ca="1" si="12"/>
-        <v>5.5479397128343022</v>
+        <v>4.0428768011293039</v>
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5960843332707668</v>
+        <v>7.231790861583784</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
@@ -9922,11 +9922,11 @@
       </c>
       <c r="B338">
         <f t="shared" ca="1" si="12"/>
-        <v>9.7725422362412147</v>
+        <v>3.9247246202982344</v>
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6483295708840471</v>
+        <v>5.3970512334182992</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
@@ -9935,11 +9935,11 @@
       </c>
       <c r="B339">
         <f t="shared" ca="1" si="12"/>
-        <v>7.0493641358835868</v>
+        <v>7.4666874691557776</v>
       </c>
       <c r="C339">
         <f t="shared" ref="C339:C402" ca="1" si="13">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
@@ -9948,11 +9948,11 @@
       </c>
       <c r="B340">
         <f t="shared" ca="1" si="12"/>
-        <v>9.1552942663614996</v>
+        <v>8.2167389218791076</v>
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2803682587260425</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
@@ -9961,11 +9961,11 @@
       </c>
       <c r="B341">
         <f t="shared" ca="1" si="12"/>
-        <v>8.6240527540843672</v>
+        <v>8.9775014830138051</v>
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="13"/>
-        <v>6.3875486641054557</v>
+        <v>6.4992969208367946</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
@@ -9974,11 +9974,11 @@
       </c>
       <c r="B342">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2788474081690948</v>
+        <v>6.8654394560946344</v>
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="13"/>
-        <v>9.0195626747089861</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
@@ -9987,11 +9987,11 @@
       </c>
       <c r="B343">
         <f t="shared" ca="1" si="12"/>
-        <v>3.0728277560954185</v>
+        <v>5.3619440661430051</v>
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8418480293250301</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
@@ -10000,11 +10000,11 @@
       </c>
       <c r="B344">
         <f t="shared" ca="1" si="12"/>
-        <v>8.600845706065007</v>
+        <v>6.9859142692355842</v>
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
@@ -10013,11 +10013,11 @@
       </c>
       <c r="B345">
         <f t="shared" ca="1" si="12"/>
-        <v>8.4631874880544498</v>
+        <v>8.3428870929057659</v>
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>5.3964170119813391</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
@@ -10026,11 +10026,11 @@
       </c>
       <c r="B346">
         <f t="shared" ca="1" si="12"/>
-        <v>7.5771305762564314</v>
+        <v>7.4544156296566602</v>
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4235749988041784</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="B347">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9559347669181886</v>
+        <v>9.934949775780149</v>
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.4677698527013767</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
@@ -10052,11 +10052,11 @@
       </c>
       <c r="B348">
         <f t="shared" ca="1" si="12"/>
-        <v>8.1356024212775786</v>
+        <v>7.7700600756764162</v>
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
@@ -10065,11 +10065,11 @@
       </c>
       <c r="B349">
         <f t="shared" ca="1" si="12"/>
-        <v>9.6358648444690314</v>
+        <v>5.3723105692451512</v>
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>3.0822316947097335</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
@@ -10078,11 +10078,11 @@
       </c>
       <c r="B350">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9177427431219467</v>
+        <v>8.852531352204247</v>
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0323668354843694</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
@@ -10091,11 +10091,11 @@
       </c>
       <c r="B351">
         <f t="shared" ca="1" si="12"/>
-        <v>6.3597951039049168</v>
+        <v>9.6509122393763906</v>
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="13"/>
-        <v>9.2948444184409169</v>
+        <v>7.7563829074865493</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.45">
@@ -10104,11 +10104,11 @@
       </c>
       <c r="B352">
         <f t="shared" ca="1" si="12"/>
-        <v>7.8227866230374214</v>
+        <v>9.4976878838801895</v>
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3594780839209282</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.45">
@@ -10117,11 +10117,11 @@
       </c>
       <c r="B353">
         <f t="shared" ca="1" si="12"/>
-        <v>6.4541256333887347</v>
+        <v>9.7586769238971769</v>
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="13"/>
-        <v>8.9356812154115559</v>
+        <v>6.0244937184184311</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.45">
@@ -10130,11 +10130,11 @@
       </c>
       <c r="B354">
         <f t="shared" ca="1" si="12"/>
-        <v>6.1900651683856633</v>
+        <v>5.9165590684463218</v>
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="13"/>
-        <v>8.9720466905950307</v>
+        <v>7.4240170037588955</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.45">
@@ -10143,11 +10143,11 @@
       </c>
       <c r="B355">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5855633077543896</v>
+        <v>7.7539950605646766</v>
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="13"/>
-        <v>8.15399558027352</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.45">
@@ -10156,11 +10156,11 @@
       </c>
       <c r="B356">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9622239627782818</v>
+        <v>7.100478013635227</v>
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="13"/>
-        <v>7.0461202601143302</v>
+        <v>4.932367765265349</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.45">
@@ -10169,11 +10169,11 @@
       </c>
       <c r="B357">
         <f t="shared" ca="1" si="12"/>
-        <v>8.6196252368287958</v>
+        <v>7.3677088642471258</v>
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>6.2050828222337922</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.45">
@@ -10182,11 +10182,11 @@
       </c>
       <c r="B358">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4237355731569412</v>
+        <v>7.3307128509882826</v>
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1772135527288583</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
@@ -10195,11 +10195,11 @@
       </c>
       <c r="B359">
         <f t="shared" ca="1" si="12"/>
-        <v>5.5525282760164272</v>
+        <v>3.3624938360610699</v>
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="13"/>
-        <v>9.4644336307735575</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.45">
@@ -10208,11 +10208,11 @@
       </c>
       <c r="B360">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2104666426966562</v>
+        <v>4.6511388113425323</v>
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="13"/>
-        <v>7.495332079315423</v>
+        <v>7.8210734567383291</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.45">
@@ -10221,11 +10221,11 @@
       </c>
       <c r="B361">
         <f t="shared" ca="1" si="12"/>
-        <v>9.0681641238465307</v>
+        <v>7.428748939704084</v>
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="13"/>
-        <v>6.8764438190968402</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.45">
@@ -10234,11 +10234,11 @@
       </c>
       <c r="B362">
         <f t="shared" ca="1" si="12"/>
-        <v>7.5752569580331048</v>
+        <v>3.4505116079854989</v>
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.45">
@@ -10247,11 +10247,11 @@
       </c>
       <c r="B363">
         <f t="shared" ca="1" si="12"/>
-        <v>8.4445475489615998</v>
+        <v>8.6981815785261336</v>
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="13"/>
-        <v>7.7392783406580605</v>
+        <v>6.2061317302856374</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.45">
@@ -10260,11 +10260,11 @@
       </c>
       <c r="B364">
         <f t="shared" ca="1" si="12"/>
-        <v>8.4269389531877543</v>
+        <v>6.6691331676254206</v>
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="13"/>
-        <v>8.379116938169469</v>
+        <v>6.7164987875960502</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.45">
@@ -10273,11 +10273,11 @@
       </c>
       <c r="B365">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4697655737761099</v>
+        <v>8.8085062591040106</v>
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.45">
@@ -10286,11 +10286,11 @@
       </c>
       <c r="B366">
         <f t="shared" ca="1" si="12"/>
-        <v>5.7414368604791974</v>
+        <v>7.7986083876040917</v>
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="13"/>
-        <v>6.7567702012968009</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.45">
@@ -10299,11 +10299,11 @@
       </c>
       <c r="B367">
         <f t="shared" ca="1" si="12"/>
-        <v>8.8328464061434904</v>
+        <v>7.2223828625612398</v>
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.45">
@@ -10312,11 +10312,11 @@
       </c>
       <c r="B368">
         <f t="shared" ca="1" si="12"/>
-        <v>7.5672480280806482</v>
+        <v>7.2216249888371644</v>
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="13"/>
-        <v>5.5219481342665953</v>
+        <v>6.335337110070915</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.45">
@@ -10325,11 +10325,11 @@
       </c>
       <c r="B369">
         <f t="shared" ca="1" si="12"/>
-        <v>5.9829239861297783</v>
+        <v>5.5408522338299502</v>
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="13"/>
-        <v>7.6824981039159947</v>
+        <v>4.9531636395818381</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.45">
@@ -10338,11 +10338,11 @@
       </c>
       <c r="B370">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5227744260582643</v>
+        <v>7.6201231490965089</v>
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.45">
@@ -10351,11 +10351,11 @@
       </c>
       <c r="B371">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5490494337983005</v>
+        <v>6.887456081557759</v>
       </c>
       <c r="C371">
         <f t="shared" ca="1" si="13"/>
-        <v>9.3563661525554682</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.45">
@@ -10364,11 +10364,11 @@
       </c>
       <c r="B372">
         <f t="shared" ref="B372:B435" ca="1" si="14">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>7.7089573319732203</v>
+        <v>7.7577826962668013</v>
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="13"/>
-        <v>8.8181358029327548</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.45">
@@ -10377,11 +10377,11 @@
       </c>
       <c r="B373">
         <f t="shared" ca="1" si="14"/>
-        <v>9.9019486343453345</v>
+        <v>9.5188145200565728</v>
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="13"/>
-        <v>4.8789460177903816</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.45">
@@ -10390,11 +10390,11 @@
       </c>
       <c r="B374">
         <f t="shared" ca="1" si="14"/>
-        <v>7.9518262504063379</v>
+        <v>8.0541658062885801</v>
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5078208445935957</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.45">
@@ -10403,11 +10403,11 @@
       </c>
       <c r="B375">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5959720779262909</v>
+        <v>7.1092685591110412</v>
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.45">
@@ -10416,11 +10416,11 @@
       </c>
       <c r="B376">
         <f t="shared" ca="1" si="14"/>
-        <v>8.2617553388316569</v>
+        <v>5.4682539141656363</v>
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="13"/>
-        <v>9.0511913717143475</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.45">
@@ -10429,11 +10429,11 @@
       </c>
       <c r="B377">
         <f t="shared" ca="1" si="14"/>
-        <v>9.9226254527200375</v>
+        <v>7.3897020547180698</v>
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.6284372720244962</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.45">
@@ -10442,11 +10442,11 @@
       </c>
       <c r="B378">
         <f t="shared" ca="1" si="14"/>
-        <v>8.6849889862653029</v>
+        <v>5.7447781143020578</v>
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>4.4448286804150881</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.45">
@@ -10455,11 +10455,11 @@
       </c>
       <c r="B379">
         <f t="shared" ca="1" si="14"/>
-        <v>6.8403520035366858</v>
+        <v>9.2099875981020478</v>
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>3.8764070051439337</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.45">
@@ -10468,11 +10468,11 @@
       </c>
       <c r="B380">
         <f t="shared" ca="1" si="14"/>
-        <v>7.7165192801229097</v>
+        <v>8.6192195310701774</v>
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="13"/>
-        <v>8.704005100706711</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.45">
@@ -10481,11 +10481,11 @@
       </c>
       <c r="B381">
         <f t="shared" ca="1" si="14"/>
-        <v>9.7433750042091969</v>
+        <v>6.3557515783349583</v>
       </c>
       <c r="C381">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4001108913870706</v>
+        <v>2.3703103006161683</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.45">
@@ -10494,11 +10494,11 @@
       </c>
       <c r="B382">
         <f t="shared" ca="1" si="14"/>
-        <v>8.231510515369397</v>
+        <v>9.7942013395371461</v>
       </c>
       <c r="C382">
         <f t="shared" ca="1" si="13"/>
-        <v>7.0735266509091241</v>
+        <v>6.531980668958056</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.45">
@@ -10507,11 +10507,11 @@
       </c>
       <c r="B383">
         <f t="shared" ca="1" si="14"/>
-        <v>2.8407410060495213</v>
+        <v>1.6352354085368166</v>
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.45">
@@ -10520,11 +10520,11 @@
       </c>
       <c r="B384">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7288189979109552</v>
+        <v>9.4113403829701028</v>
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.4554147664093353</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.45">
@@ -10533,11 +10533,11 @@
       </c>
       <c r="B385">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4564416094391719</v>
+        <v>8.0150786278415413</v>
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.4360641848674556</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.45">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="B386">
         <f t="shared" ca="1" si="14"/>
-        <v>2.3524116764658967</v>
+        <v>8.7428226560861972</v>
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.45">
@@ -10559,11 +10559,11 @@
       </c>
       <c r="B387">
         <f t="shared" ca="1" si="14"/>
-        <v>7.0074385615465751</v>
+        <v>6.3858617325432654</v>
       </c>
       <c r="C387">
         <f t="shared" ca="1" si="13"/>
-        <v>5.41545841573922</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.45">
@@ -10572,11 +10572,11 @@
       </c>
       <c r="B388">
         <f t="shared" ca="1" si="14"/>
-        <v>6.3760628533143873</v>
+        <v>3.448936678791231</v>
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="13"/>
-        <v>7.9718280007492623</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.45">
@@ -10585,11 +10585,11 @@
       </c>
       <c r="B389">
         <f t="shared" ca="1" si="14"/>
-        <v>6.3285130235658675</v>
+        <v>4.8524475802294091</v>
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="13"/>
-        <v>8.7715062229840139</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.45">
@@ -10598,11 +10598,11 @@
       </c>
       <c r="B390">
         <f t="shared" ca="1" si="14"/>
-        <v>7.8617140177078531</v>
+        <v>6.6837193670343371</v>
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6214679404217449</v>
+        <v>7.5893352878484945</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.45">
@@ -10611,11 +10611,11 @@
       </c>
       <c r="B391">
         <f t="shared" ca="1" si="14"/>
-        <v>8.8122710223085221</v>
+        <v>5.815240690585564</v>
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="13"/>
-        <v>7.9217360933510665</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.45">
@@ -10624,11 +10624,11 @@
       </c>
       <c r="B392">
         <f t="shared" ca="1" si="14"/>
-        <v>8.4401833640555441</v>
+        <v>4.1365883231765483</v>
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="13"/>
-        <v>7.3115965342454086</v>
+        <v>7.2328586225179468</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.45">
@@ -10637,11 +10637,11 @@
       </c>
       <c r="B393">
         <f t="shared" ca="1" si="14"/>
-        <v>5.4208526831545427</v>
+        <v>8.0401603053603594</v>
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="13"/>
-        <v>8.8166917513617022</v>
+        <v>3.7396765422516491</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.45">
@@ -10650,11 +10650,11 @@
       </c>
       <c r="B394">
         <f t="shared" ca="1" si="14"/>
-        <v>7.4784108741125976</v>
+        <v>7.591800552974556</v>
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="13"/>
-        <v>6.5318369701086514</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.45">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="B395">
         <f t="shared" ca="1" si="14"/>
-        <v>8.0107035647576055</v>
+        <v>5.0538599522114547</v>
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="13"/>
-        <v>6.3354800184745512</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.45">
@@ -10676,11 +10676,11 @@
       </c>
       <c r="B396">
         <f t="shared" ca="1" si="14"/>
-        <v>7.4219362198850263</v>
+        <v>8.9315695876623327</v>
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="13"/>
-        <v>8.5713585826719108</v>
+        <v>6.6822355193975689</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.45">
@@ -10689,11 +10689,11 @@
       </c>
       <c r="B397">
         <f t="shared" ca="1" si="14"/>
-        <v>7.4577146360700368</v>
+        <v>9.3313392491004805</v>
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="13"/>
-        <v>7.9002995280443749</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.45">
@@ -10702,11 +10702,11 @@
       </c>
       <c r="B398">
         <f t="shared" ca="1" si="14"/>
-        <v>8.9232013285747058</v>
+        <v>3.511820286341953</v>
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.45">
@@ -10715,11 +10715,11 @@
       </c>
       <c r="B399">
         <f t="shared" ca="1" si="14"/>
-        <v>6.3938051699236667</v>
+        <v>8.2508162487116845</v>
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.45">
@@ -10728,11 +10728,11 @@
       </c>
       <c r="B400">
         <f t="shared" ca="1" si="14"/>
-        <v>6.997678460606557</v>
+        <v>3.274289008685745</v>
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2207141387171063</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.45">
@@ -10741,11 +10741,11 @@
       </c>
       <c r="B401">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3858690217816303</v>
+        <v>7.564879919894695</v>
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="13"/>
-        <v>6.1465886628333415</v>
+        <v>5.9775932943667396</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.45">
@@ -10754,11 +10754,11 @@
       </c>
       <c r="B402">
         <f t="shared" ca="1" si="14"/>
-        <v>6.7520142685888391</v>
+        <v>9.8669979861077195</v>
       </c>
       <c r="C402">
         <f t="shared" ca="1" si="13"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.45">
@@ -10767,11 +10767,11 @@
       </c>
       <c r="B403">
         <f t="shared" ca="1" si="14"/>
-        <v>6.0122124249822395</v>
+        <v>5.4455203667321097</v>
       </c>
       <c r="C403">
         <f t="shared" ref="C403:C466" ca="1" si="15">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>7.1802937477988173</v>
+        <v>7.5618773266212154</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.45">
@@ -10780,11 +10780,11 @@
       </c>
       <c r="B404">
         <f t="shared" ca="1" si="14"/>
-        <v>8.2456514022935981</v>
+        <v>8.5558302615486141</v>
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>3.166800748998873</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.45">
@@ -10793,11 +10793,11 @@
       </c>
       <c r="B405">
         <f t="shared" ca="1" si="14"/>
-        <v>7.9006565541220928</v>
+        <v>2.0564800296458614</v>
       </c>
       <c r="C405">
         <f t="shared" ca="1" si="15"/>
-        <v>6.8892458838765984</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.45">
@@ -10806,11 +10806,11 @@
       </c>
       <c r="B406">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8395424548489103</v>
+        <v>9.1604516360165569</v>
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="15"/>
-        <v>6.357266684050737</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.45">
@@ -10819,11 +10819,11 @@
       </c>
       <c r="B407">
         <f t="shared" ca="1" si="14"/>
-        <v>9.1182452323611098</v>
+        <v>6.2181102765612088</v>
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.45">
@@ -10832,11 +10832,11 @@
       </c>
       <c r="B408">
         <f t="shared" ca="1" si="14"/>
-        <v>7.3925166238428393</v>
+        <v>7.8536877645894085</v>
       </c>
       <c r="C408">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.8212333995256866</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.45">
@@ -10845,11 +10845,11 @@
       </c>
       <c r="B409">
         <f t="shared" ca="1" si="14"/>
-        <v>6.5602452994316272</v>
+        <v>7.0876228755472628</v>
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8524159064480825</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.45">
@@ -10858,11 +10858,11 @@
       </c>
       <c r="B410">
         <f t="shared" ca="1" si="14"/>
-        <v>7.6506729507718747</v>
+        <v>1.4988679111177046</v>
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>4.5403002462826798</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.45">
@@ -10871,11 +10871,11 @@
       </c>
       <c r="B411">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7840150874215173</v>
+        <v>3.6268582428370006</v>
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="15"/>
-        <v>9.4595100712075642</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.45">
@@ -10884,11 +10884,11 @@
       </c>
       <c r="B412">
         <f t="shared" ca="1" si="14"/>
-        <v>9.6320974427771127</v>
+        <v>8.9304131183197093</v>
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.45">
@@ -10897,11 +10897,11 @@
       </c>
       <c r="B413">
         <f t="shared" ca="1" si="14"/>
-        <v>9.0622977774502136</v>
+        <v>4.788160049134583</v>
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.45">
@@ -10910,11 +10910,11 @@
       </c>
       <c r="B414">
         <f t="shared" ca="1" si="14"/>
-        <v>6.5068667898416805</v>
+        <v>4.2827520139062836</v>
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.45">
@@ -10923,11 +10923,11 @@
       </c>
       <c r="B415">
         <f t="shared" ca="1" si="14"/>
-        <v>8.2241578975336509</v>
+        <v>6.1312727179084581</v>
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="15"/>
-        <v>9.4282418324456749</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.45">
@@ -10936,11 +10936,11 @@
       </c>
       <c r="B416">
         <f t="shared" ca="1" si="14"/>
-        <v>6.1191062473817208</v>
+        <v>4.2648034682217419</v>
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.2283196191416375</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.45">
@@ -10949,11 +10949,11 @@
       </c>
       <c r="B417">
         <f t="shared" ca="1" si="14"/>
-        <v>8.0442516183319803</v>
+        <v>7.6570695913705471</v>
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3871129684729748</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.45">
@@ -10962,11 +10962,11 @@
       </c>
       <c r="B418">
         <f t="shared" ca="1" si="14"/>
-        <v>4.8031229084454496</v>
+        <v>8.6612552284366728</v>
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="15"/>
-        <v>8.2713060643676783</v>
+        <v>2.855446177103504</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.45">
@@ -10975,11 +10975,11 @@
       </c>
       <c r="B419">
         <f t="shared" ca="1" si="14"/>
-        <v>7.7623639154788524</v>
+        <v>8.8244756762327423</v>
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.45">
@@ -10988,11 +10988,11 @@
       </c>
       <c r="B420">
         <f t="shared" ca="1" si="14"/>
-        <v>7.5810280416580893</v>
+        <v>8.3532737915239874</v>
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.45">
@@ -11001,11 +11001,11 @@
       </c>
       <c r="B421">
         <f t="shared" ca="1" si="14"/>
-        <v>7.7716370808408977</v>
+        <v>3.2716793425803621</v>
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="15"/>
-        <v>7.3062935582396893</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.45">
@@ -11014,11 +11014,11 @@
       </c>
       <c r="B422">
         <f t="shared" ca="1" si="14"/>
-        <v>5.3635866313013247</v>
+        <v>8.6821122722395714</v>
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.45">
@@ -11027,11 +11027,11 @@
       </c>
       <c r="B423">
         <f t="shared" ca="1" si="14"/>
-        <v>8.331370086247464</v>
+        <v>6.569317880780746</v>
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="15"/>
-        <v>8.9099906358965626</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.45">
@@ -11040,11 +11040,11 @@
       </c>
       <c r="B424">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5364658647888998</v>
+        <v>7.5887862922850777</v>
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.5792949192122938</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.45">
@@ -11053,11 +11053,11 @@
       </c>
       <c r="B425">
         <f t="shared" ca="1" si="14"/>
-        <v>5.7392564359103595</v>
+        <v>9.062791939941512</v>
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="15"/>
-        <v>2.9945672114262125</v>
+        <v>5.2380040455834491</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.45">
@@ -11066,11 +11066,11 @@
       </c>
       <c r="B426">
         <f t="shared" ca="1" si="14"/>
-        <v>6.5802407101194191</v>
+        <v>8.8527724708985591</v>
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="15"/>
-        <v>7.2059748564139703</v>
+        <v>5.9713941024796267</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.45">
@@ -11079,11 +11079,11 @@
       </c>
       <c r="B427">
         <f t="shared" ca="1" si="14"/>
-        <v>7.140280043586027</v>
+        <v>9.66188029711628</v>
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.45">
@@ -11092,11 +11092,11 @@
       </c>
       <c r="B428">
         <f t="shared" ca="1" si="14"/>
-        <v>9.2136842122852443</v>
+        <v>6.7413167317298228</v>
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.45">
@@ -11105,11 +11105,11 @@
       </c>
       <c r="B429">
         <f t="shared" ca="1" si="14"/>
-        <v>4.9187803426988923</v>
+        <v>2.9725756027158994</v>
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="15"/>
-        <v>6.4802310467077691</v>
+        <v>7.3171415056410698</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.45">
@@ -11118,11 +11118,11 @@
       </c>
       <c r="B430">
         <f t="shared" ca="1" si="14"/>
-        <v>9.6323175018527269</v>
+        <v>7.23937508733753</v>
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="15"/>
-        <v>7.8831547159377759</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.45">
@@ -11131,11 +11131,11 @@
       </c>
       <c r="B431">
         <f t="shared" ca="1" si="14"/>
-        <v>6.1440835694288793</v>
+        <v>5.9402359924195292</v>
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.45">
@@ -11144,11 +11144,11 @@
       </c>
       <c r="B432">
         <f t="shared" ca="1" si="14"/>
-        <v>7.8963487065488023</v>
+        <v>8.4966087564716908</v>
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>6.300737608912149</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.45">
@@ -11157,11 +11157,11 @@
       </c>
       <c r="B433">
         <f t="shared" ca="1" si="14"/>
-        <v>8.9668434436822348</v>
+        <v>5.8181256703235178</v>
       </c>
       <c r="C433">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.45">
@@ -11170,11 +11170,11 @@
       </c>
       <c r="B434">
         <f t="shared" ca="1" si="14"/>
-        <v>7.841056242077002</v>
+        <v>8.1054935070955381</v>
       </c>
       <c r="C434">
         <f t="shared" ca="1" si="15"/>
-        <v>7.0816414569709591</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.45">
@@ -11183,11 +11183,11 @@
       </c>
       <c r="B435">
         <f t="shared" ca="1" si="14"/>
-        <v>8.7352020062168005</v>
+        <v>6.8939859358192717</v>
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>5.8715065350691402</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.45">
@@ -11196,11 +11196,11 @@
       </c>
       <c r="B436">
         <f t="shared" ref="B436:B499" ca="1" si="16">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>8.9193036289485867</v>
+        <v>8.650955178739288</v>
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>3.7662094983037768</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.45">
@@ -11209,11 +11209,11 @@
       </c>
       <c r="B437">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9280150393655564</v>
+        <v>2.4787528224373485</v>
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.45">
@@ -11222,11 +11222,11 @@
       </c>
       <c r="B438">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3504060948000367</v>
+        <v>8.2235640406562727</v>
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.45">
@@ -11235,11 +11235,11 @@
       </c>
       <c r="B439">
         <f t="shared" ca="1" si="16"/>
-        <v>9.4316882033646472</v>
+        <v>7.8759192629824408</v>
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="15"/>
-        <v>8.8228871329574918</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.45">
@@ -11248,11 +11248,11 @@
       </c>
       <c r="B440">
         <f t="shared" ca="1" si="16"/>
-        <v>9.6235840010513432</v>
+        <v>8.4404291686407404</v>
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="15"/>
-        <v>3.5395194337332008</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.45">
@@ -11261,11 +11261,11 @@
       </c>
       <c r="B441">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2180678072099482</v>
+        <v>5.6388176141727788</v>
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="15"/>
-        <v>3.9618096197013006</v>
+        <v>7.2659828299558313</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.45">
@@ -11274,11 +11274,11 @@
       </c>
       <c r="B442">
         <f t="shared" ca="1" si="16"/>
-        <v>9.9770176464483882</v>
+        <v>8.6427974716932194</v>
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="15"/>
-        <v>9.4039966260545302</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.45">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="B443">
         <f t="shared" ca="1" si="16"/>
-        <v>9.170648841399732</v>
+        <v>6.5700671820466354</v>
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.45">
@@ -11300,11 +11300,11 @@
       </c>
       <c r="B444">
         <f t="shared" ca="1" si="16"/>
-        <v>8.8357570982586644</v>
+        <v>9.8378908498375317</v>
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>6.8301006068095447</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.45">
@@ -11313,11 +11313,11 @@
       </c>
       <c r="B445">
         <f t="shared" ca="1" si="16"/>
-        <v>5.9259113561006203</v>
+        <v>8.1356021184795395</v>
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.45">
@@ -11326,11 +11326,11 @@
       </c>
       <c r="B446">
         <f t="shared" ca="1" si="16"/>
-        <v>9.7538538426625507</v>
+        <v>8.379150086216745</v>
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.45">
@@ -11339,11 +11339,11 @@
       </c>
       <c r="B447">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3346148403985207</v>
+        <v>9.946051864160939</v>
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.45">
@@ -11352,11 +11352,11 @@
       </c>
       <c r="B448">
         <f t="shared" ca="1" si="16"/>
-        <v>3.3957940417369166</v>
+        <v>8.7511858056254361</v>
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.45">
@@ -11365,11 +11365,11 @@
       </c>
       <c r="B449">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1774200592363222</v>
+        <v>7.9860720624777741</v>
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="15"/>
-        <v>9.0961498312301607</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.45">
@@ -11378,11 +11378,11 @@
       </c>
       <c r="B450">
         <f t="shared" ca="1" si="16"/>
-        <v>5.0564861247619106</v>
+        <v>5.7604117814475213</v>
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="15"/>
-        <v>9.3125688190562013</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.45">
@@ -11391,11 +11391,11 @@
       </c>
       <c r="B451">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7968322488805866</v>
+        <v>4.9891689739411564</v>
       </c>
       <c r="C451">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.45">
@@ -11404,11 +11404,11 @@
       </c>
       <c r="B452">
         <f t="shared" ca="1" si="16"/>
-        <v>6.2071342893775654</v>
+        <v>9.3643861169251945</v>
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="15"/>
-        <v>7.1747694269389015</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.45">
@@ -11417,11 +11417,11 @@
       </c>
       <c r="B453">
         <f t="shared" ca="1" si="16"/>
-        <v>5.8462441372088598</v>
+        <v>9.4293713728590731</v>
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3507408007085733</v>
+        <v>7.5219148977206807</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.45">
@@ -11430,11 +11430,11 @@
       </c>
       <c r="B454">
         <f t="shared" ca="1" si="16"/>
-        <v>5.4128190225505088</v>
+        <v>9.3939623944388355</v>
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.45">
@@ -11443,11 +11443,11 @@
       </c>
       <c r="B455">
         <f t="shared" ca="1" si="16"/>
-        <v>2.488603521364217</v>
+        <v>6.8032328781116123</v>
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="15"/>
-        <v>5.0029208747948148</v>
+        <v>4.1993820826969692</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.45">
@@ -11456,11 +11456,11 @@
       </c>
       <c r="B456">
         <f t="shared" ca="1" si="16"/>
-        <v>4.3341835274387073</v>
+        <v>7.9751641141430065</v>
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="15"/>
-        <v>6.9425726042921072</v>
+        <v>4.1868720755843043</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.45">
@@ -11469,11 +11469,11 @@
       </c>
       <c r="B457">
         <f t="shared" ca="1" si="16"/>
-        <v>3.8951492830851393</v>
+        <v>1.4801607051107339</v>
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="15"/>
-        <v>8.333847901931696</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.45">
@@ -11482,11 +11482,11 @@
       </c>
       <c r="B458">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2438545702132124</v>
+        <v>8.3007944284290698</v>
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.45">
@@ -11495,11 +11495,11 @@
       </c>
       <c r="B459">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8969537911600511</v>
+        <v>9.2998502266590037</v>
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.45">
@@ -11508,11 +11508,11 @@
       </c>
       <c r="B460">
         <f t="shared" ca="1" si="16"/>
-        <v>4.5875673670261916</v>
+        <v>5.4561963680946706</v>
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>5.2904914700627614</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.45">
@@ -11521,11 +11521,11 @@
       </c>
       <c r="B461">
         <f t="shared" ca="1" si="16"/>
-        <v>5.9373868762995983</v>
+        <v>7.6729384687135447</v>
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="15"/>
-        <v>9.4506946573191559</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.45">
@@ -11534,11 +11534,11 @@
       </c>
       <c r="B462">
         <f t="shared" ca="1" si="16"/>
-        <v>5.8979146985666615</v>
+        <v>8.935277192704449</v>
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>6.6110487056255511</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.45">
@@ -11547,11 +11547,11 @@
       </c>
       <c r="B463">
         <f t="shared" ca="1" si="16"/>
-        <v>6.0673926612922182</v>
+        <v>3.6490526520968585</v>
       </c>
       <c r="C463">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.45">
@@ -11560,11 +11560,11 @@
       </c>
       <c r="B464">
         <f t="shared" ca="1" si="16"/>
-        <v>7.276052223875495</v>
+        <v>9.2332462107340625</v>
       </c>
       <c r="C464">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3027418553310088</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.45">
@@ -11573,11 +11573,11 @@
       </c>
       <c r="B465">
         <f t="shared" ca="1" si="16"/>
-        <v>8.6293379489661941</v>
+        <v>9.3459259874722687</v>
       </c>
       <c r="C465">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.45">
@@ -11586,11 +11586,11 @@
       </c>
       <c r="B466">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3241176292251602</v>
+        <v>6.0565031651038339</v>
       </c>
       <c r="C466">
         <f t="shared" ca="1" si="15"/>
-        <v>7.6232447154821816</v>
+        <v>7.2592311547319106</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.45">
@@ -11599,11 +11599,11 @@
       </c>
       <c r="B467">
         <f t="shared" ca="1" si="16"/>
-        <v>8.806067409092158</v>
+        <v>7.5054208003965019</v>
       </c>
       <c r="C467">
         <f t="shared" ref="C467:C516" ca="1" si="17">MIN($F$10,MAX($F$7,_xlfn.NORM.INV(RAND(),$F$5,$F$6)))</f>
-        <v>7.508702771958216</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.45">
@@ -11612,11 +11612,11 @@
       </c>
       <c r="B468">
         <f t="shared" ca="1" si="16"/>
-        <v>9.7193984870260124</v>
+        <v>6.2135675463888065</v>
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9544478962414322</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.45">
@@ -11625,11 +11625,11 @@
       </c>
       <c r="B469">
         <f t="shared" ca="1" si="16"/>
-        <v>3.5840999023501094</v>
+        <v>7.6999435019653006</v>
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>5.7472868157631289</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.45">
@@ -11638,11 +11638,11 @@
       </c>
       <c r="B470">
         <f t="shared" ca="1" si="16"/>
-        <v>3.5419578882943368</v>
+        <v>6.0295418139620036</v>
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="17"/>
-        <v>6.3881803192558904</v>
+        <v>2.466447679819785</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.45">
@@ -11651,11 +11651,11 @@
       </c>
       <c r="B471">
         <f t="shared" ca="1" si="16"/>
-        <v>9.4113000243177254</v>
+        <v>9.0888785562308474</v>
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="17"/>
-        <v>5.1344662752854857</v>
+        <v>6.1734052668417014</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.45">
@@ -11664,11 +11664,11 @@
       </c>
       <c r="B472">
         <f t="shared" ca="1" si="16"/>
-        <v>5.8751981228751013</v>
+        <v>7.3375696361151723</v>
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.45">
@@ -11677,11 +11677,11 @@
       </c>
       <c r="B473">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3153821835870172</v>
+        <v>6.4421332297537788</v>
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>5.9972005251639242</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.45">
@@ -11690,11 +11690,11 @@
       </c>
       <c r="B474">
         <f t="shared" ca="1" si="16"/>
-        <v>7.6533784620974821</v>
+        <v>9.1221356079370359</v>
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="17"/>
-        <v>8.3350080171491836</v>
+        <v>4.966577460033883</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.45">
@@ -11703,11 +11703,11 @@
       </c>
       <c r="B475">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1571682157314553</v>
+        <v>8.0242480852403091</v>
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.45">
@@ -11716,11 +11716,11 @@
       </c>
       <c r="B476">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7933338099158656</v>
+        <v>6.002668901088108</v>
       </c>
       <c r="C476">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.3596942124279856</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.45">
@@ -11729,11 +11729,11 @@
       </c>
       <c r="B477">
         <f t="shared" ca="1" si="16"/>
-        <v>5.6123996741512716</v>
+        <v>7.0010056083594341</v>
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.45">
@@ -11742,11 +11742,11 @@
       </c>
       <c r="B478">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3209323947181044</v>
+        <v>8.9532265075696564</v>
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8247552337035353</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.45">
@@ -11755,11 +11755,11 @@
       </c>
       <c r="B479">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7707897056070143</v>
+        <v>8.4528650414406439</v>
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="17"/>
-        <v>8.0926227714931187</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.45">
@@ -11768,11 +11768,11 @@
       </c>
       <c r="B480">
         <f t="shared" ca="1" si="16"/>
-        <v>3.9259447248958459</v>
+        <v>6.2305244633472352</v>
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.45">
@@ -11781,11 +11781,11 @@
       </c>
       <c r="B481">
         <f t="shared" ca="1" si="16"/>
-        <v>9.5622136052462778</v>
+        <v>7.69210231958525</v>
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>4.6809306191043136</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.45">
@@ -11794,11 +11794,11 @@
       </c>
       <c r="B482">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1509219304787717</v>
+        <v>4.6360731570518663</v>
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>4.3505629546622036</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.45">
@@ -11807,11 +11807,11 @@
       </c>
       <c r="B483">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2226407035114715</v>
+        <v>3.3443618596908786</v>
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.45">
@@ -11820,11 +11820,11 @@
       </c>
       <c r="B484">
         <f t="shared" ca="1" si="16"/>
-        <v>3.9969356664394411</v>
+        <v>8.6196578185370818</v>
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="17"/>
-        <v>4.233020282504337</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.45">
@@ -11833,11 +11833,11 @@
       </c>
       <c r="B485">
         <f t="shared" ca="1" si="16"/>
-        <v>7.4932250291659077</v>
+        <v>9.6579829426308059</v>
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="17"/>
-        <v>7.5249137480132671</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.45">
@@ -11846,11 +11846,11 @@
       </c>
       <c r="B486">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2800105870392304</v>
+        <v>5.9502452329485234</v>
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="17"/>
-        <v>7.6392836034080061</v>
+        <v>7.4508986054862367</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.45">
@@ -11859,11 +11859,11 @@
       </c>
       <c r="B487">
         <f t="shared" ca="1" si="16"/>
-        <v>3.2130766020446098</v>
+        <v>9.5168856143672365</v>
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7450022781884567</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.45">
@@ -11872,11 +11872,11 @@
       </c>
       <c r="B488">
         <f t="shared" ca="1" si="16"/>
-        <v>4.9309655179585459</v>
+        <v>7.4771588742929005</v>
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6155075460328723</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.45">
@@ -11885,11 +11885,11 @@
       </c>
       <c r="B489">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5779669427595611</v>
+        <v>8.7995293972242496</v>
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.45">
@@ -11898,11 +11898,11 @@
       </c>
       <c r="B490">
         <f t="shared" ca="1" si="16"/>
-        <v>7.4065381199690519</v>
+        <v>8.3711513573941616</v>
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.45">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="B491">
         <f t="shared" ca="1" si="16"/>
-        <v>4.8155093718928539</v>
+        <v>8.7865601699676006</v>
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.45">
@@ -11924,11 +11924,11 @@
       </c>
       <c r="B492">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2015482350237079</v>
+        <v>7.7168747855231175</v>
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.45">
@@ -11937,11 +11937,11 @@
       </c>
       <c r="B493">
         <f t="shared" ca="1" si="16"/>
-        <v>3.9785769903848962</v>
+        <v>8.6369009726221098</v>
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="17"/>
-        <v>6.3042136953649823</v>
+        <v>6.1290426133240654</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.45">
@@ -11950,11 +11950,11 @@
       </c>
       <c r="B494">
         <f t="shared" ca="1" si="16"/>
-        <v>9.3669422546092207</v>
+        <v>7.7064654459585427</v>
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="17"/>
-        <v>6.3906570879450832</v>
+        <v>7.1302997815723757</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.45">
@@ -11963,11 +11963,11 @@
       </c>
       <c r="B495">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6129890588076101</v>
+        <v>8.2041260561386231</v>
       </c>
       <c r="C495">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.8200407917616701</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.45">
@@ -11976,11 +11976,11 @@
       </c>
       <c r="B496">
         <f t="shared" ca="1" si="16"/>
-        <v>8.56259958661696</v>
+        <v>6.9911672506386404</v>
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>6.4892092651876316</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.45">
@@ -11989,11 +11989,11 @@
       </c>
       <c r="B497">
         <f t="shared" ca="1" si="16"/>
-        <v>9.7846399554675614</v>
+        <v>5.5962650806344172</v>
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.45">
@@ -12002,11 +12002,11 @@
       </c>
       <c r="B498">
         <f t="shared" ca="1" si="16"/>
-        <v>9.8058731259295673</v>
+        <v>7.5684348893819084</v>
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7814138526686953</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.45">
@@ -12015,11 +12015,11 @@
       </c>
       <c r="B499">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9870869479909725</v>
+        <v>3.1751054820825235</v>
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9991118238253138</v>
+        <v>6.2663026753730806</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.45">
@@ -12028,11 +12028,11 @@
       </c>
       <c r="B500">
         <f t="shared" ref="B500:B516" ca="1" si="18">_xlfn.NORM.INV(($C$9+($C$10-$C$9)*RAND()),$C$5,$C$6)</f>
-        <v>8.4600359772747282</v>
+        <v>7.6538211809478733</v>
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.45">
@@ -12041,11 +12041,11 @@
       </c>
       <c r="B501">
         <f t="shared" ca="1" si="18"/>
-        <v>9.7861176232486589</v>
+        <v>4.9024187132733399</v>
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.45">
@@ -12054,11 +12054,11 @@
       </c>
       <c r="B502">
         <f t="shared" ca="1" si="18"/>
-        <v>5.9074744655355609</v>
+        <v>4.8585142218396893</v>
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="17"/>
-        <v>6.2759782790695331</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.45">
@@ -12067,11 +12067,11 @@
       </c>
       <c r="B503">
         <f t="shared" ca="1" si="18"/>
-        <v>7.5259537050797487</v>
+        <v>9.5504362848074624</v>
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.45">
@@ -12080,11 +12080,11 @@
       </c>
       <c r="B504">
         <f t="shared" ca="1" si="18"/>
-        <v>7.7892118663421313</v>
+        <v>9.3636488771733717</v>
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="17"/>
-        <v>3.0225897602641734</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.45">
@@ -12093,11 +12093,11 @@
       </c>
       <c r="B505">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1152074974303776</v>
+        <v>8.762768090484121</v>
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.45">
@@ -12106,11 +12106,11 @@
       </c>
       <c r="B506">
         <f t="shared" ca="1" si="18"/>
-        <v>8.0237443811348506</v>
+        <v>8.2069774786764125</v>
       </c>
       <c r="C506">
         <f t="shared" ca="1" si="17"/>
-        <v>7.5713233586495861</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.45">
@@ -12119,11 +12119,11 @@
       </c>
       <c r="B507">
         <f t="shared" ca="1" si="18"/>
-        <v>6.2152467929830895</v>
+        <v>6.547932483022274</v>
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5073096019825307</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.45">
@@ -12132,11 +12132,11 @@
       </c>
       <c r="B508">
         <f t="shared" ca="1" si="18"/>
-        <v>5.9153326913205717</v>
+        <v>3.1881450810682495</v>
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="17"/>
-        <v>9.1835316542833851</v>
+        <v>1.5214307123663504</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.45">
@@ -12145,11 +12145,11 @@
       </c>
       <c r="B509">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1612432752662176</v>
+        <v>5.0756350277351165</v>
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7553452287499667</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.45">
@@ -12158,11 +12158,11 @@
       </c>
       <c r="B510">
         <f t="shared" ca="1" si="18"/>
-        <v>7.7804300711989658</v>
+        <v>9.5909910144053754</v>
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="17"/>
-        <v>6.927603402424948</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.45">
@@ -12171,11 +12171,11 @@
       </c>
       <c r="B511">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0609728940367305</v>
+        <v>6.2520555234088135</v>
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5749969123241154</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.45">
@@ -12184,11 +12184,11 @@
       </c>
       <c r="B512">
         <f t="shared" ca="1" si="18"/>
-        <v>7.5467547493632701</v>
+        <v>7.6184043163131179</v>
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9309980857532745</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.45">
@@ -12197,11 +12197,11 @@
       </c>
       <c r="B513">
         <f t="shared" ca="1" si="18"/>
-        <v>7.7010433611808953</v>
+        <v>6.1815439694062153</v>
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="17"/>
-        <v>9.4413293042813429</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.45">
@@ -12210,11 +12210,11 @@
       </c>
       <c r="B514">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1370699784032965</v>
+        <v>7.8750206548484698</v>
       </c>
       <c r="C514">
         <f t="shared" ca="1" si="17"/>
-        <v>9.4702096318608522</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.45">
@@ -12223,11 +12223,11 @@
       </c>
       <c r="B515">
         <f t="shared" ca="1" si="18"/>
-        <v>6.9267207275478997</v>
+        <v>7.0707318411020026</v>
       </c>
       <c r="C515">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>4.8420162738019021</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.45">
@@ -12236,11 +12236,11 @@
       </c>
       <c r="B516">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3012016058191573</v>
+        <v>3.6519403040006289</v>
       </c>
       <c r="C516">
         <f t="shared" ca="1" si="17"/>
-        <v>9.5960843332707668</v>
+        <v>7.9379853372336102</v>
       </c>
     </row>
   </sheetData>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="G7" s="14">
         <f ca="1">_xlfn.BINOM.INV(G5,G6/G5,RAND())</f>
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -20432,15 +20432,15 @@
         <v>474</v>
       </c>
       <c r="K478">
-        <f t="shared" ref="K478:K541" si="24">_xlfn.POISSON.DIST(J478,$C$5,0)</f>
+        <f t="shared" ref="K478:K504" si="24">_xlfn.POISSON.DIST(J478,$C$5,0)</f>
         <v>4.6422142139759089E-21</v>
       </c>
       <c r="L478">
-        <f t="shared" ref="L478:L541" si="25">_xlfn.BINOM.DIST(J478,$C$4,$C$6,0)</f>
+        <f t="shared" ref="L478:L504" si="25">_xlfn.BINOM.DIST(J478,$C$4,$C$6,0)</f>
         <v>4.5735288696896311E-21</v>
       </c>
       <c r="M478">
-        <f t="shared" ref="M478:M541" si="26">ABS(K478-L478)</f>
+        <f t="shared" ref="M478:M504" si="26">ABS(K478-L478)</f>
         <v>6.8685344286277828E-23</v>
       </c>
     </row>
@@ -20900,7 +20900,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M14" sqref="M13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20956,7 +20956,7 @@
       </c>
       <c r="F4" s="34">
         <f ca="1">RANDBETWEEN(C4*10^E4,D4*10^E4)/(10^E4)</f>
-        <v>1.609</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="H4" s="43">
         <v>1</v>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" ref="F5:F8" ca="1" si="0">RANDBETWEEN(C5*10^E5,D5*10^E5)/(10^E5)</f>
-        <v>1434</v>
+        <v>2014</v>
       </c>
       <c r="H5" s="43">
         <v>2</v>
@@ -21004,7 +21004,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>321.86900000000003</v>
+        <v>426.73</v>
       </c>
       <c r="H6" s="43">
         <v>3</v>
@@ -21028,7 +21028,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1.468</v>
+        <v>1.2</v>
       </c>
       <c r="H7" s="43">
         <v>4</v>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="F8" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.141</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="H8" s="43">
         <v>5</v>
@@ -21227,7 +21227,7 @@
       </c>
       <c r="I29" s="42" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,MAX(H:H)),H4:I28,2, FALSE)</f>
-        <v>Lucas</v>
+        <v>Mason</v>
       </c>
     </row>
   </sheetData>
